--- a/parseCOA4Bugget/all.xlsx
+++ b/parseCOA4Bugget/all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="9495" windowHeight="5160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="8790"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="ALL" state="visible" r:id="rId4"/>
@@ -2139,10 +2139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="75" zoomScaleNormal="100">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9" customHeight="1"/>

--- a/parseCOA4Bugget/all.xlsx
+++ b/parseCOA4Bugget/all.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="12240" windowHeight="8790"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="9495" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="ALL" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ALL'!$A1:$H162</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ALL'!$A1:$H167</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
   <si>
     <t>EVA FLIGHT TRAINING ACADEMY</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Non-Routine Report Form</t>
   </si>
   <si>
-    <t>Budget Code: B01</t>
+    <t>Budget Code: B11</t>
   </si>
   <si>
     <t xml:space="preserve">Station: FTA* </t>
@@ -58,7 +58,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Jan.2020~Sep.2020 Actual + Oct.2020~Dec.2020B92</t>
+    <t>Jan.2020~Sep.2020 Actual + Oct.2020~Dec.2020B01</t>
   </si>
   <si>
     <t>Jan.2021~Dec.2021</t>
@@ -457,6 +457,15 @@
     <t>PILOTS EXPENSE-PILOT SIGNING CONTRACT BONUS</t>
   </si>
   <si>
+    <t>5501DF</t>
+  </si>
+  <si>
+    <t>QQ01</t>
+  </si>
+  <si>
+    <t>PILOT TRAVELING EXP.-TRANSPORTATION FEE FOR BUSINESS</t>
+  </si>
+  <si>
     <t>5501EA</t>
   </si>
   <si>
@@ -961,6 +970,15 @@
     <t>TRAVELING EXPENSES-PER DIEM</t>
   </si>
   <si>
+    <t>6204D*</t>
+  </si>
+  <si>
+    <t>TG01</t>
+  </si>
+  <si>
+    <t>TRAVELING EXPENSES-MISCELLANEOUS</t>
+  </si>
+  <si>
     <t>6204F*</t>
   </si>
   <si>
@@ -1024,6 +1042,15 @@
     <t>POSTAGE EXPENSES-LEASED CIRCUIT EXPENSE</t>
   </si>
   <si>
+    <t>6207C*</t>
+  </si>
+  <si>
+    <t>UA01</t>
+  </si>
+  <si>
+    <t>REPAIR &amp; MAINTENANCE-GROUND TRANSPORTATION EQUIPMENT</t>
+  </si>
+  <si>
     <t>6207D*</t>
   </si>
   <si>
@@ -1042,6 +1069,15 @@
     <t>REPAIR &amp; MAINTENANCE-OTHER EQUIPMENT</t>
   </si>
   <si>
+    <t>6209A*</t>
+  </si>
+  <si>
+    <t>UG01</t>
+  </si>
+  <si>
+    <t>UTILITIES EXPENSES-WATER</t>
+  </si>
+  <si>
     <t>6209B*</t>
   </si>
   <si>
@@ -1184,6 +1220,15 @@
   </si>
   <si>
     <t>EMPLOYEE WELFARE-TRANSFER PAYING</t>
+  </si>
+  <si>
+    <t>6219E*</t>
+  </si>
+  <si>
+    <t>VQ05</t>
+  </si>
+  <si>
+    <t>EMPLOYEE WELFARE-MEDICAL EXPENSE</t>
   </si>
   <si>
     <t>6219H*</t>
@@ -2139,50 +2184,50 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2215,9 +2260,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2256,162 +2301,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="75" zoomScaleNormal="100">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="97.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="97.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2625,14 +2694,14 @@
         <v>31</v>
       </c>
       <c r="D12" s="29">
-        <v>108710.71</v>
+        <v>5241180.35287</v>
       </c>
       <c r="E12" s="30">
         <v>0</v>
       </c>
       <c r="F12" s="31">
         <f t="shared" si="0"/>
-        <v>-108710.71</v>
+        <v>-5241180.35287</v>
       </c>
       <c r="G12" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2651,14 +2720,14 @@
         <v>34</v>
       </c>
       <c r="D13" s="29">
-        <v>2132747.01</v>
+        <v>3314258.01</v>
       </c>
       <c r="E13" s="30">
         <v>0</v>
       </c>
       <c r="F13" s="31">
         <f t="shared" si="0"/>
-        <v>-2132747.01</v>
+        <v>-3314258.01</v>
       </c>
       <c r="G13" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2677,14 +2746,14 @@
         <v>37</v>
       </c>
       <c r="D14" s="29">
-        <v>57229.94</v>
+        <v>75229.94</v>
       </c>
       <c r="E14" s="30">
         <v>0</v>
       </c>
       <c r="F14" s="31">
         <f t="shared" si="0"/>
-        <v>-57229.94</v>
+        <v>-75229.94</v>
       </c>
       <c r="G14" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2781,14 +2850,14 @@
         <v>49</v>
       </c>
       <c r="D18" s="29">
-        <v>2858.52</v>
+        <v>4535.52</v>
       </c>
       <c r="E18" s="30">
         <v>0</v>
       </c>
       <c r="F18" s="31">
         <f t="shared" si="0"/>
-        <v>-2858.52</v>
+        <v>-4535.52</v>
       </c>
       <c r="G18" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2833,14 +2902,14 @@
         <v>55</v>
       </c>
       <c r="D20" s="29">
-        <v>207352.2</v>
+        <v>306824.016</v>
       </c>
       <c r="E20" s="30">
         <v>0</v>
       </c>
       <c r="F20" s="31">
         <f t="shared" si="0"/>
-        <v>-207352.2</v>
+        <v>-306824.016</v>
       </c>
       <c r="G20" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2885,14 +2954,14 @@
         <v>61</v>
       </c>
       <c r="D22" s="29">
-        <v>27306.79</v>
+        <v>29306.79</v>
       </c>
       <c r="E22" s="30">
         <v>0</v>
       </c>
       <c r="F22" s="31">
         <f t="shared" si="0"/>
-        <v>-27306.79</v>
+        <v>-29306.79</v>
       </c>
       <c r="G22" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2911,14 +2980,14 @@
         <v>64</v>
       </c>
       <c r="D23" s="29">
-        <v>14285.880000000001</v>
+        <v>27585.88</v>
       </c>
       <c r="E23" s="30">
         <v>0</v>
       </c>
       <c r="F23" s="31">
         <f t="shared" si="0"/>
-        <v>-14285.880000000001</v>
+        <v>-27585.88</v>
       </c>
       <c r="G23" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2963,14 +3032,14 @@
         <v>70</v>
       </c>
       <c r="D25" s="29">
-        <v>93786</v>
+        <v>125046.99999</v>
       </c>
       <c r="E25" s="30">
         <v>0</v>
       </c>
       <c r="F25" s="31">
         <f t="shared" si="0"/>
-        <v>-93786</v>
+        <v>-125046.99999</v>
       </c>
       <c r="G25" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2989,14 +3058,14 @@
         <v>73</v>
       </c>
       <c r="D26" s="29">
-        <v>15934.79</v>
+        <v>22139.79</v>
       </c>
       <c r="E26" s="30">
         <v>0</v>
       </c>
       <c r="F26" s="31">
         <f t="shared" si="0"/>
-        <v>-15934.79</v>
+        <v>-22139.79</v>
       </c>
       <c r="G26" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3015,14 +3084,14 @@
         <v>76</v>
       </c>
       <c r="D27" s="29">
-        <v>14645.29</v>
+        <v>21880.29</v>
       </c>
       <c r="E27" s="30">
         <v>0</v>
       </c>
       <c r="F27" s="31">
         <f t="shared" si="0"/>
-        <v>-14645.29</v>
+        <v>-21880.29</v>
       </c>
       <c r="G27" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3093,14 +3162,14 @@
         <v>85</v>
       </c>
       <c r="D30" s="29">
-        <v>32.79</v>
+        <v>182.79</v>
       </c>
       <c r="E30" s="30">
         <v>0</v>
       </c>
       <c r="F30" s="31">
         <f t="shared" si="0"/>
-        <v>-32.79</v>
+        <v>-182.79</v>
       </c>
       <c r="G30" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3119,14 +3188,14 @@
         <v>88</v>
       </c>
       <c r="D31" s="29">
-        <v>2583.56</v>
+        <v>3183.56</v>
       </c>
       <c r="E31" s="30">
         <v>0</v>
       </c>
       <c r="F31" s="31">
         <f t="shared" si="0"/>
-        <v>-2583.56</v>
+        <v>-3183.56</v>
       </c>
       <c r="G31" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3145,14 +3214,14 @@
         <v>91</v>
       </c>
       <c r="D32" s="29">
-        <v>43192.35</v>
+        <v>57589.35</v>
       </c>
       <c r="E32" s="30">
         <v>0</v>
       </c>
       <c r="F32" s="31">
         <f t="shared" si="0"/>
-        <v>-43192.35</v>
+        <v>-57589.35</v>
       </c>
       <c r="G32" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3171,14 +3240,14 @@
         <v>94</v>
       </c>
       <c r="D33" s="29">
-        <v>153638.28</v>
+        <v>204851.28</v>
       </c>
       <c r="E33" s="30">
         <v>0</v>
       </c>
       <c r="F33" s="31">
         <f t="shared" si="0"/>
-        <v>-153638.28</v>
+        <v>-204851.28</v>
       </c>
       <c r="G33" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3197,14 +3266,14 @@
         <v>97</v>
       </c>
       <c r="D34" s="29">
-        <v>3743.89</v>
+        <v>5249.89</v>
       </c>
       <c r="E34" s="30">
         <v>0</v>
       </c>
       <c r="F34" s="31">
         <f t="shared" si="0"/>
-        <v>-3743.89</v>
+        <v>-5249.89</v>
       </c>
       <c r="G34" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3223,14 +3292,14 @@
         <v>100</v>
       </c>
       <c r="D35" s="29">
-        <v>177558.31</v>
+        <v>220053.31</v>
       </c>
       <c r="E35" s="30">
         <v>0</v>
       </c>
       <c r="F35" s="31">
         <f t="shared" si="0"/>
-        <v>-177558.31</v>
+        <v>-220053.31</v>
       </c>
       <c r="G35" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3249,14 +3318,14 @@
         <v>103</v>
       </c>
       <c r="D36" s="29">
-        <v>87713.05</v>
+        <v>116270.05</v>
       </c>
       <c r="E36" s="30">
         <v>0</v>
       </c>
       <c r="F36" s="31">
         <f t="shared" si="0"/>
-        <v>-87713.05</v>
+        <v>-116270.05</v>
       </c>
       <c r="G36" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3275,14 +3344,14 @@
         <v>106</v>
       </c>
       <c r="D37" s="29">
-        <v>28637.55</v>
+        <v>38183.55</v>
       </c>
       <c r="E37" s="30">
         <v>0</v>
       </c>
       <c r="F37" s="31">
         <f t="shared" si="0"/>
-        <v>-28637.55</v>
+        <v>-38183.55</v>
       </c>
       <c r="G37" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3353,14 +3422,14 @@
         <v>115</v>
       </c>
       <c r="D40" s="29">
-        <v>172642.96</v>
+        <v>265942.96</v>
       </c>
       <c r="E40" s="30">
         <v>0</v>
       </c>
       <c r="F40" s="31">
         <f t="shared" ref="F40:F71" si="2">E40-D40</f>
-        <v>-172642.96</v>
+        <v>-265942.96</v>
       </c>
       <c r="G40" s="32" t="str">
         <f t="shared" ref="G40:G71" si="3">IF(E40=0,"-",IF(D40=0,"*",F40/D40))</f>
@@ -3379,14 +3448,14 @@
         <v>118</v>
       </c>
       <c r="D41" s="29">
-        <v>66948.13</v>
+        <v>90383.13</v>
       </c>
       <c r="E41" s="30">
         <v>0</v>
       </c>
       <c r="F41" s="31">
         <f t="shared" si="2"/>
-        <v>-66948.13</v>
+        <v>-90383.13</v>
       </c>
       <c r="G41" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3405,14 +3474,14 @@
         <v>121</v>
       </c>
       <c r="D42" s="29">
-        <v>10171.07</v>
+        <v>17098.07</v>
       </c>
       <c r="E42" s="30">
         <v>0</v>
       </c>
       <c r="F42" s="31">
         <f t="shared" si="2"/>
-        <v>-10171.07</v>
+        <v>-17098.07</v>
       </c>
       <c r="G42" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3483,14 +3552,14 @@
         <v>130</v>
       </c>
       <c r="D45" s="29">
-        <v>94292.75</v>
+        <v>148292.75</v>
       </c>
       <c r="E45" s="30">
         <v>0</v>
       </c>
       <c r="F45" s="31">
         <f t="shared" si="2"/>
-        <v>-94292.75</v>
+        <v>-148292.75</v>
       </c>
       <c r="G45" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3509,14 +3578,14 @@
         <v>133</v>
       </c>
       <c r="D46" s="29">
-        <v>105669.85</v>
+        <v>168714.85</v>
       </c>
       <c r="E46" s="30">
         <v>0</v>
       </c>
       <c r="F46" s="31">
         <f t="shared" si="2"/>
-        <v>-105669.85</v>
+        <v>-168714.85</v>
       </c>
       <c r="G46" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3535,14 +3604,14 @@
         <v>136</v>
       </c>
       <c r="D47" s="29">
-        <v>98840.85</v>
+        <v>156440.85</v>
       </c>
       <c r="E47" s="30">
         <v>0</v>
       </c>
       <c r="F47" s="31">
         <f t="shared" si="2"/>
-        <v>-98840.85</v>
+        <v>-156440.85</v>
       </c>
       <c r="G47" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3587,14 +3656,14 @@
         <v>142</v>
       </c>
       <c r="D49" s="29">
-        <v>24300</v>
+        <v>39849</v>
       </c>
       <c r="E49" s="30">
         <v>0</v>
       </c>
       <c r="F49" s="31">
         <f t="shared" si="2"/>
-        <v>-24300</v>
+        <v>-39849</v>
       </c>
       <c r="G49" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3639,14 +3708,14 @@
         <v>148</v>
       </c>
       <c r="D51" s="29">
-        <v>1579.52</v>
+        <v>1000</v>
       </c>
       <c r="E51" s="30">
         <v>0</v>
       </c>
       <c r="F51" s="31">
         <f t="shared" si="2"/>
-        <v>-1579.52</v>
+        <v>-1000</v>
       </c>
       <c r="G51" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3665,14 +3734,14 @@
         <v>151</v>
       </c>
       <c r="D52" s="29">
-        <v>57485.880000000005</v>
+        <v>2639.66</v>
       </c>
       <c r="E52" s="30">
         <v>0</v>
       </c>
       <c r="F52" s="31">
         <f t="shared" si="2"/>
-        <v>-57485.880000000005</v>
+        <v>-2639.66</v>
       </c>
       <c r="G52" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3691,14 +3760,14 @@
         <v>154</v>
       </c>
       <c r="D53" s="29">
-        <v>7816</v>
+        <v>81729.90000000001</v>
       </c>
       <c r="E53" s="30">
         <v>0</v>
       </c>
       <c r="F53" s="31">
         <f t="shared" si="2"/>
-        <v>-7816</v>
+        <v>-81729.90000000001</v>
       </c>
       <c r="G53" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3717,14 +3786,14 @@
         <v>157</v>
       </c>
       <c r="D54" s="29">
-        <v>6146.6</v>
+        <v>11758</v>
       </c>
       <c r="E54" s="30">
         <v>0</v>
       </c>
       <c r="F54" s="31">
         <f t="shared" si="2"/>
-        <v>-6146.6</v>
+        <v>-11758</v>
       </c>
       <c r="G54" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3743,14 +3812,14 @@
         <v>160</v>
       </c>
       <c r="D55" s="29">
-        <v>980</v>
+        <v>8306.6</v>
       </c>
       <c r="E55" s="30">
         <v>0</v>
       </c>
       <c r="F55" s="31">
         <f t="shared" si="2"/>
-        <v>-980</v>
+        <v>-8306.6</v>
       </c>
       <c r="G55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3769,14 +3838,14 @@
         <v>163</v>
       </c>
       <c r="D56" s="29">
-        <v>52296.46</v>
+        <v>980</v>
       </c>
       <c r="E56" s="30">
         <v>0</v>
       </c>
       <c r="F56" s="31">
         <f t="shared" si="2"/>
-        <v>-52296.46</v>
+        <v>-980</v>
       </c>
       <c r="G56" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3795,14 +3864,14 @@
         <v>166</v>
       </c>
       <c r="D57" s="29">
-        <v>1390.29</v>
+        <v>79296.46</v>
       </c>
       <c r="E57" s="30">
         <v>0</v>
       </c>
       <c r="F57" s="31">
         <f t="shared" si="2"/>
-        <v>-1390.29</v>
+        <v>-79296.46</v>
       </c>
       <c r="G57" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3821,14 +3890,14 @@
         <v>169</v>
       </c>
       <c r="D58" s="29">
-        <v>1492.04</v>
+        <v>1390.29</v>
       </c>
       <c r="E58" s="30">
         <v>0</v>
       </c>
       <c r="F58" s="31">
         <f t="shared" si="2"/>
-        <v>-1492.04</v>
+        <v>-1390.29</v>
       </c>
       <c r="G58" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3847,14 +3916,14 @@
         <v>172</v>
       </c>
       <c r="D59" s="29">
-        <v>5098.55</v>
+        <v>1492.04</v>
       </c>
       <c r="E59" s="30">
         <v>0</v>
       </c>
       <c r="F59" s="31">
         <f t="shared" si="2"/>
-        <v>-5098.55</v>
+        <v>-1492.04</v>
       </c>
       <c r="G59" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3873,14 +3942,14 @@
         <v>175</v>
       </c>
       <c r="D60" s="29">
-        <v>2727.2400000000002</v>
+        <v>5098.55</v>
       </c>
       <c r="E60" s="30">
         <v>0</v>
       </c>
       <c r="F60" s="31">
         <f t="shared" si="2"/>
-        <v>-2727.2400000000002</v>
+        <v>-5098.55</v>
       </c>
       <c r="G60" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3899,14 +3968,14 @@
         <v>178</v>
       </c>
       <c r="D61" s="29">
-        <v>48880</v>
+        <v>2727.2400000000002</v>
       </c>
       <c r="E61" s="30">
         <v>0</v>
       </c>
       <c r="F61" s="31">
         <f t="shared" si="2"/>
-        <v>-48880</v>
+        <v>-2727.2400000000002</v>
       </c>
       <c r="G61" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3925,14 +3994,14 @@
         <v>181</v>
       </c>
       <c r="D62" s="29">
-        <v>453</v>
+        <v>67380</v>
       </c>
       <c r="E62" s="30">
         <v>0</v>
       </c>
       <c r="F62" s="31">
         <f t="shared" si="2"/>
-        <v>-453</v>
+        <v>-67380</v>
       </c>
       <c r="G62" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3951,14 +4020,14 @@
         <v>184</v>
       </c>
       <c r="D63" s="29">
-        <v>3211.03</v>
+        <v>453</v>
       </c>
       <c r="E63" s="30">
         <v>0</v>
       </c>
       <c r="F63" s="31">
         <f t="shared" si="2"/>
-        <v>-3211.03</v>
+        <v>-453</v>
       </c>
       <c r="G63" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3977,14 +4046,14 @@
         <v>187</v>
       </c>
       <c r="D64" s="29">
-        <v>2534.01</v>
+        <v>4011.03</v>
       </c>
       <c r="E64" s="30">
         <v>0</v>
       </c>
       <c r="F64" s="31">
         <f t="shared" si="2"/>
-        <v>-2534.01</v>
+        <v>-4011.03</v>
       </c>
       <c r="G64" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4003,14 +4072,14 @@
         <v>190</v>
       </c>
       <c r="D65" s="29">
-        <v>941.16</v>
+        <v>4134.01</v>
       </c>
       <c r="E65" s="30">
         <v>0</v>
       </c>
       <c r="F65" s="31">
         <f t="shared" si="2"/>
-        <v>-941.16</v>
+        <v>-4134.01</v>
       </c>
       <c r="G65" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4029,14 +4098,14 @@
         <v>193</v>
       </c>
       <c r="D66" s="29">
-        <v>675.0500000000001</v>
+        <v>1661.16</v>
       </c>
       <c r="E66" s="30">
         <v>0</v>
       </c>
       <c r="F66" s="31">
         <f t="shared" si="2"/>
-        <v>-675.0500000000001</v>
+        <v>-1661.16</v>
       </c>
       <c r="G66" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4055,14 +4124,14 @@
         <v>196</v>
       </c>
       <c r="D67" s="29">
-        <v>384.48</v>
+        <v>2175.05</v>
       </c>
       <c r="E67" s="30">
         <v>0</v>
       </c>
       <c r="F67" s="31">
         <f t="shared" si="2"/>
-        <v>-384.48</v>
+        <v>-2175.05</v>
       </c>
       <c r="G67" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4081,14 +4150,14 @@
         <v>199</v>
       </c>
       <c r="D68" s="29">
-        <v>105648.16</v>
+        <v>434.48</v>
       </c>
       <c r="E68" s="30">
         <v>0</v>
       </c>
       <c r="F68" s="31">
         <f t="shared" si="2"/>
-        <v>-105648.16</v>
+        <v>-434.48</v>
       </c>
       <c r="G68" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4107,14 +4176,14 @@
         <v>202</v>
       </c>
       <c r="D69" s="29">
-        <v>19854.74</v>
+        <v>165333.16</v>
       </c>
       <c r="E69" s="30">
         <v>0</v>
       </c>
       <c r="F69" s="31">
         <f t="shared" si="2"/>
-        <v>-19854.74</v>
+        <v>-165333.16</v>
       </c>
       <c r="G69" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4133,14 +4202,14 @@
         <v>205</v>
       </c>
       <c r="D70" s="29">
-        <v>100.65</v>
+        <v>27522.74</v>
       </c>
       <c r="E70" s="30">
         <v>0</v>
       </c>
       <c r="F70" s="31">
         <f t="shared" si="2"/>
-        <v>-100.65</v>
+        <v>-27522.74</v>
       </c>
       <c r="G70" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4159,14 +4228,14 @@
         <v>208</v>
       </c>
       <c r="D71" s="29">
-        <v>18</v>
+        <v>151.65</v>
       </c>
       <c r="E71" s="30">
         <v>0</v>
       </c>
       <c r="F71" s="31">
         <f t="shared" si="2"/>
-        <v>-18</v>
+        <v>-151.65</v>
       </c>
       <c r="G71" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4185,14 +4254,14 @@
         <v>211</v>
       </c>
       <c r="D72" s="29">
-        <v>-18</v>
+        <v>18</v>
       </c>
       <c r="E72" s="30">
         <v>0</v>
       </c>
       <c r="F72" s="31">
         <f t="shared" ref="F72:F103" si="4">E72-D72</f>
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="G72" s="32" t="str">
         <f t="shared" ref="G72:G103" si="5">IF(E72=0,"-",IF(D72=0,"*",F72/D72))</f>
@@ -4211,14 +4280,14 @@
         <v>214</v>
       </c>
       <c r="D73" s="29">
-        <v>13839.36</v>
+        <v>-18</v>
       </c>
       <c r="E73" s="30">
         <v>0</v>
       </c>
       <c r="F73" s="31">
         <f t="shared" si="4"/>
-        <v>-13839.36</v>
+        <v>18</v>
       </c>
       <c r="G73" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4237,14 +4306,14 @@
         <v>217</v>
       </c>
       <c r="D74" s="29">
-        <v>50982.17</v>
+        <v>20829.36</v>
       </c>
       <c r="E74" s="30">
         <v>0</v>
       </c>
       <c r="F74" s="31">
         <f t="shared" si="4"/>
-        <v>-50982.17</v>
+        <v>-20829.36</v>
       </c>
       <c r="G74" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4263,14 +4332,14 @@
         <v>220</v>
       </c>
       <c r="D75" s="29">
-        <v>11036</v>
+        <v>70377.17</v>
       </c>
       <c r="E75" s="30">
         <v>0</v>
       </c>
       <c r="F75" s="31">
         <f t="shared" si="4"/>
-        <v>-11036</v>
+        <v>-70377.17</v>
       </c>
       <c r="G75" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4289,14 +4358,14 @@
         <v>223</v>
       </c>
       <c r="D76" s="29">
-        <v>5154.88</v>
+        <v>20759</v>
       </c>
       <c r="E76" s="30">
         <v>0</v>
       </c>
       <c r="F76" s="31">
         <f t="shared" si="4"/>
-        <v>-5154.88</v>
+        <v>-20759</v>
       </c>
       <c r="G76" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4315,14 +4384,14 @@
         <v>226</v>
       </c>
       <c r="D77" s="29">
-        <v>654.15</v>
+        <v>8294.880000000001</v>
       </c>
       <c r="E77" s="30">
         <v>0</v>
       </c>
       <c r="F77" s="31">
         <f t="shared" si="4"/>
-        <v>-654.15</v>
+        <v>-8294.880000000001</v>
       </c>
       <c r="G77" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4341,14 +4410,14 @@
         <v>229</v>
       </c>
       <c r="D78" s="29">
-        <v>15138.78</v>
+        <v>983.4</v>
       </c>
       <c r="E78" s="30">
         <v>0</v>
       </c>
       <c r="F78" s="31">
         <f t="shared" si="4"/>
-        <v>-15138.78</v>
+        <v>-983.4</v>
       </c>
       <c r="G78" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4367,14 +4436,14 @@
         <v>232</v>
       </c>
       <c r="D79" s="29">
-        <v>6089.650000000001</v>
+        <v>22167.510000000002</v>
       </c>
       <c r="E79" s="30">
         <v>0</v>
       </c>
       <c r="F79" s="31">
         <f t="shared" si="4"/>
-        <v>-6089.650000000001</v>
+        <v>-22167.510000000002</v>
       </c>
       <c r="G79" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4393,14 +4462,14 @@
         <v>235</v>
       </c>
       <c r="D80" s="29">
-        <v>4505.78</v>
+        <v>6089.650000000001</v>
       </c>
       <c r="E80" s="30">
         <v>0</v>
       </c>
       <c r="F80" s="31">
         <f t="shared" si="4"/>
-        <v>-4505.78</v>
+        <v>-6089.650000000001</v>
       </c>
       <c r="G80" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4419,14 +4488,14 @@
         <v>238</v>
       </c>
       <c r="D81" s="29">
-        <v>270.92</v>
+        <v>6182.78</v>
       </c>
       <c r="E81" s="30">
         <v>0</v>
       </c>
       <c r="F81" s="31">
         <f t="shared" si="4"/>
-        <v>-270.92</v>
+        <v>-6182.78</v>
       </c>
       <c r="G81" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4445,14 +4514,14 @@
         <v>241</v>
       </c>
       <c r="D82" s="29">
-        <v>1750.55</v>
+        <v>270.92</v>
       </c>
       <c r="E82" s="30">
         <v>0</v>
       </c>
       <c r="F82" s="31">
         <f t="shared" si="4"/>
-        <v>-1750.55</v>
+        <v>-270.92</v>
       </c>
       <c r="G82" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4471,14 +4540,14 @@
         <v>244</v>
       </c>
       <c r="D83" s="29">
-        <v>490</v>
+        <v>1750.55</v>
       </c>
       <c r="E83" s="30">
         <v>0</v>
       </c>
       <c r="F83" s="31">
         <f t="shared" si="4"/>
-        <v>-490</v>
+        <v>-1750.55</v>
       </c>
       <c r="G83" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4497,14 +4566,14 @@
         <v>247</v>
       </c>
       <c r="D84" s="29">
-        <v>325.38</v>
+        <v>490</v>
       </c>
       <c r="E84" s="30">
         <v>0</v>
       </c>
       <c r="F84" s="31">
         <f t="shared" si="4"/>
-        <v>-325.38</v>
+        <v>-490</v>
       </c>
       <c r="G84" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4523,14 +4592,14 @@
         <v>250</v>
       </c>
       <c r="D85" s="29">
-        <v>8367.3</v>
+        <v>1325.38</v>
       </c>
       <c r="E85" s="30">
         <v>0</v>
       </c>
       <c r="F85" s="31">
         <f t="shared" si="4"/>
-        <v>-8367.3</v>
+        <v>-1325.38</v>
       </c>
       <c r="G85" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4549,14 +4618,14 @@
         <v>253</v>
       </c>
       <c r="D86" s="29">
-        <v>282</v>
+        <v>11157.300000000001</v>
       </c>
       <c r="E86" s="30">
         <v>0</v>
       </c>
       <c r="F86" s="31">
         <f t="shared" si="4"/>
-        <v>-282</v>
+        <v>-11157.300000000001</v>
       </c>
       <c r="G86" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4575,14 +4644,14 @@
         <v>256</v>
       </c>
       <c r="D87" s="29">
-        <v>5982</v>
+        <v>372</v>
       </c>
       <c r="E87" s="30">
         <v>0</v>
       </c>
       <c r="F87" s="31">
         <f t="shared" si="4"/>
-        <v>-5982</v>
+        <v>-372</v>
       </c>
       <c r="G87" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4601,14 +4670,14 @@
         <v>259</v>
       </c>
       <c r="D88" s="29">
-        <v>1215</v>
+        <v>6957</v>
       </c>
       <c r="E88" s="30">
         <v>0</v>
       </c>
       <c r="F88" s="31">
         <f t="shared" si="4"/>
-        <v>-1215</v>
+        <v>-6957</v>
       </c>
       <c r="G88" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4627,14 +4696,14 @@
         <v>262</v>
       </c>
       <c r="D89" s="29">
-        <v>260.38</v>
+        <v>2061</v>
       </c>
       <c r="E89" s="30">
         <v>0</v>
       </c>
       <c r="F89" s="31">
         <f t="shared" si="4"/>
-        <v>-260.38</v>
+        <v>-2061</v>
       </c>
       <c r="G89" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4653,14 +4722,14 @@
         <v>265</v>
       </c>
       <c r="D90" s="29">
-        <v>1195.89</v>
+        <v>360.38</v>
       </c>
       <c r="E90" s="30">
         <v>0</v>
       </c>
       <c r="F90" s="31">
         <f t="shared" si="4"/>
-        <v>-1195.89</v>
+        <v>-360.38</v>
       </c>
       <c r="G90" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4679,14 +4748,14 @@
         <v>268</v>
       </c>
       <c r="D91" s="29">
-        <v>214674.17</v>
+        <v>1435.89</v>
       </c>
       <c r="E91" s="30">
         <v>0</v>
       </c>
       <c r="F91" s="31">
         <f t="shared" si="4"/>
-        <v>-214674.17</v>
+        <v>-1435.89</v>
       </c>
       <c r="G91" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4705,14 +4774,14 @@
         <v>271</v>
       </c>
       <c r="D92" s="29">
-        <v>1796.6200000000001</v>
+        <v>317247.17</v>
       </c>
       <c r="E92" s="30">
         <v>0</v>
       </c>
       <c r="F92" s="31">
         <f t="shared" si="4"/>
-        <v>-1796.6200000000001</v>
+        <v>-317247.17</v>
       </c>
       <c r="G92" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4731,14 +4800,14 @@
         <v>274</v>
       </c>
       <c r="D93" s="29">
-        <v>10867.56</v>
+        <v>28196.62</v>
       </c>
       <c r="E93" s="30">
         <v>0</v>
       </c>
       <c r="F93" s="31">
         <f t="shared" si="4"/>
-        <v>-10867.56</v>
+        <v>-28196.62</v>
       </c>
       <c r="G93" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4757,14 +4826,14 @@
         <v>277</v>
       </c>
       <c r="D94" s="29">
-        <v>10157.28</v>
+        <v>16267.56</v>
       </c>
       <c r="E94" s="30">
         <v>0</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="4"/>
-        <v>-10157.28</v>
+        <v>-16267.56</v>
       </c>
       <c r="G94" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4783,14 +4852,14 @@
         <v>280</v>
       </c>
       <c r="D95" s="29">
-        <v>-3156.56</v>
+        <v>10157.28</v>
       </c>
       <c r="E95" s="30">
         <v>0</v>
       </c>
       <c r="F95" s="31">
         <f t="shared" si="4"/>
-        <v>3156.56</v>
+        <v>-10157.28</v>
       </c>
       <c r="G95" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4809,14 +4878,14 @@
         <v>283</v>
       </c>
       <c r="D96" s="29">
-        <v>2074.94</v>
+        <v>-3156.56</v>
       </c>
       <c r="E96" s="30">
         <v>0</v>
       </c>
       <c r="F96" s="31">
         <f t="shared" si="4"/>
-        <v>-2074.94</v>
+        <v>3156.56</v>
       </c>
       <c r="G96" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4835,14 +4904,14 @@
         <v>286</v>
       </c>
       <c r="D97" s="29">
-        <v>34156.44</v>
+        <v>2782.94</v>
       </c>
       <c r="E97" s="30">
         <v>0</v>
       </c>
       <c r="F97" s="31">
         <f t="shared" si="4"/>
-        <v>-34156.44</v>
+        <v>-2782.94</v>
       </c>
       <c r="G97" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4861,14 +4930,14 @@
         <v>289</v>
       </c>
       <c r="D98" s="29">
-        <v>18447</v>
+        <v>46003.44</v>
       </c>
       <c r="E98" s="30">
         <v>0</v>
       </c>
       <c r="F98" s="31">
         <f t="shared" si="4"/>
-        <v>-18447</v>
+        <v>-46003.44</v>
       </c>
       <c r="G98" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4887,14 +4956,14 @@
         <v>292</v>
       </c>
       <c r="D99" s="29">
-        <v>8985.57</v>
+        <v>31443</v>
       </c>
       <c r="E99" s="30">
         <v>0</v>
       </c>
       <c r="F99" s="31">
         <f t="shared" si="4"/>
-        <v>-8985.57</v>
+        <v>-31443</v>
       </c>
       <c r="G99" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4913,14 +4982,14 @@
         <v>295</v>
       </c>
       <c r="D100" s="29">
-        <v>15583.68</v>
+        <v>35982.57</v>
       </c>
       <c r="E100" s="30">
         <v>0</v>
       </c>
       <c r="F100" s="31">
         <f t="shared" si="4"/>
-        <v>-15583.68</v>
+        <v>-35982.57</v>
       </c>
       <c r="G100" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4939,14 +5008,14 @@
         <v>298</v>
       </c>
       <c r="D101" s="29">
-        <v>5314.32</v>
+        <v>20782.68</v>
       </c>
       <c r="E101" s="30">
         <v>0</v>
       </c>
       <c r="F101" s="31">
         <f t="shared" si="4"/>
-        <v>-5314.32</v>
+        <v>-20782.68</v>
       </c>
       <c r="G101" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4965,14 +5034,14 @@
         <v>301</v>
       </c>
       <c r="D102" s="29">
-        <v>2299</v>
+        <v>7304.32</v>
       </c>
       <c r="E102" s="30">
         <v>0</v>
       </c>
       <c r="F102" s="31">
         <f t="shared" si="4"/>
-        <v>-2299</v>
+        <v>-7304.32</v>
       </c>
       <c r="G102" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4991,14 +5060,14 @@
         <v>304</v>
       </c>
       <c r="D103" s="29">
-        <v>286.16</v>
+        <v>2299</v>
       </c>
       <c r="E103" s="30">
         <v>0</v>
       </c>
       <c r="F103" s="31">
         <f t="shared" si="4"/>
-        <v>-286.16</v>
+        <v>-2299</v>
       </c>
       <c r="G103" s="32" t="str">
         <f t="shared" si="5"/>
@@ -5017,14 +5086,14 @@
         <v>307</v>
       </c>
       <c r="D104" s="29">
-        <v>177.96</v>
+        <v>886.16</v>
       </c>
       <c r="E104" s="30">
         <v>0</v>
       </c>
       <c r="F104" s="31">
         <f t="shared" ref="F104:F135" si="6">E104-D104</f>
-        <v>-177.96</v>
+        <v>-886.16</v>
       </c>
       <c r="G104" s="32" t="str">
         <f t="shared" ref="G104:G135" si="7">IF(E104=0,"-",IF(D104=0,"*",F104/D104))</f>
@@ -5043,14 +5112,14 @@
         <v>310</v>
       </c>
       <c r="D105" s="29">
-        <v>1928.75</v>
+        <v>2677.96</v>
       </c>
       <c r="E105" s="30">
         <v>0</v>
       </c>
       <c r="F105" s="31">
         <f t="shared" si="6"/>
-        <v>-1928.75</v>
+        <v>-2677.96</v>
       </c>
       <c r="G105" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5069,14 +5138,14 @@
         <v>313</v>
       </c>
       <c r="D106" s="29">
-        <v>360</v>
+        <v>2828.75</v>
       </c>
       <c r="E106" s="30">
         <v>0</v>
       </c>
       <c r="F106" s="31">
         <f t="shared" si="6"/>
-        <v>-360</v>
+        <v>-2828.75</v>
       </c>
       <c r="G106" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5095,14 +5164,14 @@
         <v>316</v>
       </c>
       <c r="D107" s="29">
-        <v>3727.61</v>
+        <v>840</v>
       </c>
       <c r="E107" s="30">
         <v>0</v>
       </c>
       <c r="F107" s="31">
         <f t="shared" si="6"/>
-        <v>-3727.61</v>
+        <v>-840</v>
       </c>
       <c r="G107" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5121,14 +5190,14 @@
         <v>319</v>
       </c>
       <c r="D108" s="29">
-        <v>2615.83</v>
+        <v>150</v>
       </c>
       <c r="E108" s="30">
         <v>0</v>
       </c>
       <c r="F108" s="31">
         <f t="shared" si="6"/>
-        <v>-2615.83</v>
+        <v>-150</v>
       </c>
       <c r="G108" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5147,14 +5216,14 @@
         <v>322</v>
       </c>
       <c r="D109" s="29">
-        <v>836</v>
+        <v>7267.610000000001</v>
       </c>
       <c r="E109" s="30">
         <v>0</v>
       </c>
       <c r="F109" s="31">
         <f t="shared" si="6"/>
-        <v>-836</v>
+        <v>-7267.610000000001</v>
       </c>
       <c r="G109" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5173,14 +5242,14 @@
         <v>325</v>
       </c>
       <c r="D110" s="29">
-        <v>2786.3</v>
+        <v>4145.83</v>
       </c>
       <c r="E110" s="30">
         <v>0</v>
       </c>
       <c r="F110" s="31">
         <f t="shared" si="6"/>
-        <v>-2786.3</v>
+        <v>-4145.83</v>
       </c>
       <c r="G110" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5199,14 +5268,14 @@
         <v>328</v>
       </c>
       <c r="D111" s="29">
-        <v>487.5</v>
+        <v>1496</v>
       </c>
       <c r="E111" s="30">
         <v>0</v>
       </c>
       <c r="F111" s="31">
         <f t="shared" si="6"/>
-        <v>-487.5</v>
+        <v>-1496</v>
       </c>
       <c r="G111" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5225,14 +5294,14 @@
         <v>331</v>
       </c>
       <c r="D112" s="29">
-        <v>11534.25</v>
+        <v>4700.3</v>
       </c>
       <c r="E112" s="30">
         <v>0</v>
       </c>
       <c r="F112" s="31">
         <f t="shared" si="6"/>
-        <v>-11534.25</v>
+        <v>-4700.3</v>
       </c>
       <c r="G112" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5251,14 +5320,14 @@
         <v>334</v>
       </c>
       <c r="D113" s="29">
-        <v>4455</v>
+        <v>832.5</v>
       </c>
       <c r="E113" s="30">
         <v>0</v>
       </c>
       <c r="F113" s="31">
         <f t="shared" si="6"/>
-        <v>-4455</v>
+        <v>-832.5</v>
       </c>
       <c r="G113" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5277,14 +5346,14 @@
         <v>337</v>
       </c>
       <c r="D114" s="29">
-        <v>6893.87</v>
+        <v>15734.25</v>
       </c>
       <c r="E114" s="30">
         <v>0</v>
       </c>
       <c r="F114" s="31">
         <f t="shared" si="6"/>
-        <v>-6893.87</v>
+        <v>-15734.25</v>
       </c>
       <c r="G114" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5303,14 +5372,14 @@
         <v>340</v>
       </c>
       <c r="D115" s="29">
-        <v>998</v>
+        <v>5955</v>
       </c>
       <c r="E115" s="30">
         <v>0</v>
       </c>
       <c r="F115" s="31">
         <f t="shared" si="6"/>
-        <v>-998</v>
+        <v>-5955</v>
       </c>
       <c r="G115" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5329,14 +5398,14 @@
         <v>343</v>
       </c>
       <c r="D116" s="29">
-        <v>28340.58</v>
+        <v>300</v>
       </c>
       <c r="E116" s="30">
         <v>0</v>
       </c>
       <c r="F116" s="31">
         <f t="shared" si="6"/>
-        <v>-28340.58</v>
+        <v>-300</v>
       </c>
       <c r="G116" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5355,14 +5424,14 @@
         <v>346</v>
       </c>
       <c r="D117" s="29">
-        <v>154.35</v>
+        <v>9143.87</v>
       </c>
       <c r="E117" s="30">
         <v>0</v>
       </c>
       <c r="F117" s="31">
         <f t="shared" si="6"/>
-        <v>-154.35</v>
+        <v>-9143.87</v>
       </c>
       <c r="G117" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5381,14 +5450,14 @@
         <v>349</v>
       </c>
       <c r="D118" s="29">
-        <v>10011.9</v>
+        <v>2498</v>
       </c>
       <c r="E118" s="30">
         <v>0</v>
       </c>
       <c r="F118" s="31">
         <f t="shared" si="6"/>
-        <v>-10011.9</v>
+        <v>-2498</v>
       </c>
       <c r="G118" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5407,14 +5476,14 @@
         <v>352</v>
       </c>
       <c r="D119" s="29">
-        <v>36777.38</v>
+        <v>1500</v>
       </c>
       <c r="E119" s="30">
         <v>0</v>
       </c>
       <c r="F119" s="31">
         <f t="shared" si="6"/>
-        <v>-36777.38</v>
+        <v>-1500</v>
       </c>
       <c r="G119" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5433,14 +5502,14 @@
         <v>355</v>
       </c>
       <c r="D120" s="29">
-        <v>1290.24</v>
+        <v>37440.58</v>
       </c>
       <c r="E120" s="30">
         <v>0</v>
       </c>
       <c r="F120" s="31">
         <f t="shared" si="6"/>
-        <v>-1290.24</v>
+        <v>-37440.58</v>
       </c>
       <c r="G120" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5459,14 +5528,14 @@
         <v>358</v>
       </c>
       <c r="D121" s="29">
-        <v>35700.43</v>
+        <v>274.35</v>
       </c>
       <c r="E121" s="30">
         <v>0</v>
       </c>
       <c r="F121" s="31">
         <f t="shared" si="6"/>
-        <v>-35700.43</v>
+        <v>-274.35</v>
       </c>
       <c r="G121" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5485,14 +5554,14 @@
         <v>361</v>
       </c>
       <c r="D122" s="29">
-        <v>41006.090000000004</v>
+        <v>10011.9</v>
       </c>
       <c r="E122" s="30">
         <v>0</v>
       </c>
       <c r="F122" s="31">
         <f t="shared" si="6"/>
-        <v>-41006.090000000004</v>
+        <v>-10011.9</v>
       </c>
       <c r="G122" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5511,14 +5580,14 @@
         <v>364</v>
       </c>
       <c r="D123" s="29">
-        <v>26804.25</v>
+        <v>36777.38</v>
       </c>
       <c r="E123" s="30">
         <v>0</v>
       </c>
       <c r="F123" s="31">
         <f t="shared" si="6"/>
-        <v>-26804.25</v>
+        <v>-36777.38</v>
       </c>
       <c r="G123" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5537,14 +5606,14 @@
         <v>367</v>
       </c>
       <c r="D124" s="29">
-        <v>-140.48</v>
+        <v>1834.41</v>
       </c>
       <c r="E124" s="30">
         <v>0</v>
       </c>
       <c r="F124" s="31">
         <f t="shared" si="6"/>
-        <v>140.48</v>
+        <v>-1834.41</v>
       </c>
       <c r="G124" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5563,14 +5632,14 @@
         <v>370</v>
       </c>
       <c r="D125" s="29">
-        <v>108.34</v>
+        <v>35700.43</v>
       </c>
       <c r="E125" s="30">
         <v>0</v>
       </c>
       <c r="F125" s="31">
         <f t="shared" si="6"/>
-        <v>-108.34</v>
+        <v>-35700.43</v>
       </c>
       <c r="G125" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5589,14 +5658,14 @@
         <v>373</v>
       </c>
       <c r="D126" s="29">
-        <v>444.88</v>
+        <v>59332.19</v>
       </c>
       <c r="E126" s="30">
         <v>0</v>
       </c>
       <c r="F126" s="31">
         <f t="shared" si="6"/>
-        <v>-444.88</v>
+        <v>-59332.19</v>
       </c>
       <c r="G126" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5615,14 +5684,14 @@
         <v>376</v>
       </c>
       <c r="D127" s="29">
-        <v>-500</v>
+        <v>26804.25</v>
       </c>
       <c r="E127" s="30">
         <v>0</v>
       </c>
       <c r="F127" s="31">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>-26804.25</v>
       </c>
       <c r="G127" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5641,14 +5710,14 @@
         <v>379</v>
       </c>
       <c r="D128" s="29">
-        <v>2405</v>
+        <v>-140.48</v>
       </c>
       <c r="E128" s="30">
         <v>0</v>
       </c>
       <c r="F128" s="31">
         <f t="shared" si="6"/>
-        <v>-2405</v>
+        <v>140.48</v>
       </c>
       <c r="G128" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5667,14 +5736,14 @@
         <v>382</v>
       </c>
       <c r="D129" s="29">
-        <v>186611.26</v>
+        <v>2008.3400000000001</v>
       </c>
       <c r="E129" s="30">
         <v>0</v>
       </c>
       <c r="F129" s="31">
         <f t="shared" si="6"/>
-        <v>-186611.26</v>
+        <v>-2008.3400000000001</v>
       </c>
       <c r="G129" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5693,14 +5762,14 @@
         <v>385</v>
       </c>
       <c r="D130" s="29">
-        <v>800</v>
+        <v>1444.88</v>
       </c>
       <c r="E130" s="30">
         <v>0</v>
       </c>
       <c r="F130" s="31">
         <f t="shared" si="6"/>
-        <v>-800</v>
+        <v>-1444.88</v>
       </c>
       <c r="G130" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5719,14 +5788,14 @@
         <v>388</v>
       </c>
       <c r="D131" s="29">
-        <v>435.34000000000003</v>
+        <v>-500</v>
       </c>
       <c r="E131" s="30">
         <v>0</v>
       </c>
       <c r="F131" s="31">
         <f t="shared" si="6"/>
-        <v>-435.34000000000003</v>
+        <v>500</v>
       </c>
       <c r="G131" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5745,14 +5814,14 @@
         <v>391</v>
       </c>
       <c r="D132" s="29">
-        <v>630</v>
+        <v>2405</v>
       </c>
       <c r="E132" s="30">
         <v>0</v>
       </c>
       <c r="F132" s="31">
         <f t="shared" si="6"/>
-        <v>-630</v>
+        <v>-2405</v>
       </c>
       <c r="G132" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5771,14 +5840,14 @@
         <v>394</v>
       </c>
       <c r="D133" s="29">
-        <v>8827.300000000001</v>
+        <v>186611.26</v>
       </c>
       <c r="E133" s="30">
         <v>0</v>
       </c>
       <c r="F133" s="31">
         <f t="shared" si="6"/>
-        <v>-8827.300000000001</v>
+        <v>-186611.26</v>
       </c>
       <c r="G133" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5797,14 +5866,14 @@
         <v>397</v>
       </c>
       <c r="D134" s="29">
-        <v>4475</v>
+        <v>800</v>
       </c>
       <c r="E134" s="30">
         <v>0</v>
       </c>
       <c r="F134" s="31">
         <f t="shared" si="6"/>
-        <v>-4475</v>
+        <v>-800</v>
       </c>
       <c r="G134" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5823,14 +5892,14 @@
         <v>400</v>
       </c>
       <c r="D135" s="29">
-        <v>623.3000000000001</v>
+        <v>3435.34</v>
       </c>
       <c r="E135" s="30">
         <v>0</v>
       </c>
       <c r="F135" s="31">
         <f t="shared" si="6"/>
-        <v>-623.3000000000001</v>
+        <v>-3435.34</v>
       </c>
       <c r="G135" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5849,17 +5918,17 @@
         <v>403</v>
       </c>
       <c r="D136" s="29">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="E136" s="30">
         <v>0</v>
       </c>
       <c r="F136" s="31">
-        <f t="shared" ref="F136:F160" si="8">E136-D136</f>
-        <v>-1200</v>
+        <f t="shared" ref="F136:F167" si="8">E136-D136</f>
+        <v>-100</v>
       </c>
       <c r="G136" s="32" t="str">
-        <f t="shared" ref="G136:G161" si="9">IF(E136=0,"-",IF(D136=0,"*",F136/D136))</f>
+        <f t="shared" ref="G136:G167" si="9">IF(E136=0,"-",IF(D136=0,"*",F136/D136))</f>
         <v>-</v>
       </c>
       <c r="H136" s="33"/>
@@ -5875,14 +5944,14 @@
         <v>406</v>
       </c>
       <c r="D137" s="29">
-        <v>1626.66</v>
+        <v>630</v>
       </c>
       <c r="E137" s="30">
         <v>0</v>
       </c>
       <c r="F137" s="31">
         <f t="shared" si="8"/>
-        <v>-1626.66</v>
+        <v>-630</v>
       </c>
       <c r="G137" s="32" t="str">
         <f t="shared" si="9"/>
@@ -5901,14 +5970,14 @@
         <v>409</v>
       </c>
       <c r="D138" s="29">
-        <v>709.08</v>
+        <v>12352.300000000001</v>
       </c>
       <c r="E138" s="30">
         <v>0</v>
       </c>
       <c r="F138" s="31">
         <f t="shared" si="8"/>
-        <v>-709.08</v>
+        <v>-12352.300000000001</v>
       </c>
       <c r="G138" s="32" t="str">
         <f t="shared" si="9"/>
@@ -5927,14 +5996,14 @@
         <v>412</v>
       </c>
       <c r="D139" s="29">
-        <v>21078.66</v>
+        <v>4475</v>
       </c>
       <c r="E139" s="30">
         <v>0</v>
       </c>
       <c r="F139" s="31">
         <f t="shared" si="8"/>
-        <v>-21078.66</v>
+        <v>-4475</v>
       </c>
       <c r="G139" s="32" t="str">
         <f t="shared" si="9"/>
@@ -5953,14 +6022,14 @@
         <v>415</v>
       </c>
       <c r="D140" s="29">
-        <v>15058.5</v>
+        <v>623.3000000000001</v>
       </c>
       <c r="E140" s="30">
         <v>0</v>
       </c>
       <c r="F140" s="31">
         <f t="shared" si="8"/>
-        <v>-15058.5</v>
+        <v>-623.3000000000001</v>
       </c>
       <c r="G140" s="32" t="str">
         <f t="shared" si="9"/>
@@ -5979,14 +6048,14 @@
         <v>418</v>
       </c>
       <c r="D141" s="29">
-        <v>3983.2400000000002</v>
+        <v>1200</v>
       </c>
       <c r="E141" s="30">
         <v>0</v>
       </c>
       <c r="F141" s="31">
         <f t="shared" si="8"/>
-        <v>-3983.2400000000002</v>
+        <v>-1200</v>
       </c>
       <c r="G141" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6005,14 +6074,14 @@
         <v>421</v>
       </c>
       <c r="D142" s="29">
-        <v>5990.63</v>
+        <v>1626.66</v>
       </c>
       <c r="E142" s="30">
         <v>0</v>
       </c>
       <c r="F142" s="31">
         <f t="shared" si="8"/>
-        <v>-5990.63</v>
+        <v>-1626.66</v>
       </c>
       <c r="G142" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6031,14 +6100,14 @@
         <v>424</v>
       </c>
       <c r="D143" s="29">
-        <v>396.67</v>
+        <v>709.08</v>
       </c>
       <c r="E143" s="30">
         <v>0</v>
       </c>
       <c r="F143" s="31">
         <f t="shared" si="8"/>
-        <v>-396.67</v>
+        <v>-709.08</v>
       </c>
       <c r="G143" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6057,14 +6126,14 @@
         <v>427</v>
       </c>
       <c r="D144" s="29">
-        <v>524.34</v>
+        <v>21778.66</v>
       </c>
       <c r="E144" s="30">
         <v>0</v>
       </c>
       <c r="F144" s="31">
         <f t="shared" si="8"/>
-        <v>-524.34</v>
+        <v>-21778.66</v>
       </c>
       <c r="G144" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6083,14 +6152,14 @@
         <v>430</v>
       </c>
       <c r="D145" s="29">
-        <v>285.05</v>
+        <v>22558.5</v>
       </c>
       <c r="E145" s="30">
         <v>0</v>
       </c>
       <c r="F145" s="31">
         <f t="shared" si="8"/>
-        <v>-285.05</v>
+        <v>-22558.5</v>
       </c>
       <c r="G145" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6109,14 +6178,14 @@
         <v>433</v>
       </c>
       <c r="D146" s="29">
-        <v>759</v>
+        <v>4883.24</v>
       </c>
       <c r="E146" s="30">
         <v>0</v>
       </c>
       <c r="F146" s="31">
         <f t="shared" si="8"/>
-        <v>-759</v>
+        <v>-4883.24</v>
       </c>
       <c r="G146" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6135,14 +6204,14 @@
         <v>436</v>
       </c>
       <c r="D147" s="29">
-        <v>344.17</v>
+        <v>8390.630000000001</v>
       </c>
       <c r="E147" s="30">
         <v>0</v>
       </c>
       <c r="F147" s="31">
         <f t="shared" si="8"/>
-        <v>-344.17</v>
+        <v>-8390.630000000001</v>
       </c>
       <c r="G147" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6161,14 +6230,14 @@
         <v>439</v>
       </c>
       <c r="D148" s="29">
-        <v>14.26</v>
+        <v>396.67</v>
       </c>
       <c r="E148" s="30">
         <v>0</v>
       </c>
       <c r="F148" s="31">
         <f t="shared" si="8"/>
-        <v>-14.26</v>
+        <v>-396.67</v>
       </c>
       <c r="G148" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6187,14 +6256,14 @@
         <v>442</v>
       </c>
       <c r="D149" s="29">
-        <v>11062.49</v>
+        <v>524.34</v>
       </c>
       <c r="E149" s="30">
         <v>0</v>
       </c>
       <c r="F149" s="31">
         <f t="shared" si="8"/>
-        <v>-11062.49</v>
+        <v>-524.34</v>
       </c>
       <c r="G149" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6213,14 +6282,14 @@
         <v>445</v>
       </c>
       <c r="D150" s="29">
-        <v>30296.12</v>
+        <v>485.05</v>
       </c>
       <c r="E150" s="30">
         <v>0</v>
       </c>
       <c r="F150" s="31">
         <f t="shared" si="8"/>
-        <v>-30296.12</v>
+        <v>-485.05</v>
       </c>
       <c r="G150" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6239,14 +6308,14 @@
         <v>448</v>
       </c>
       <c r="D151" s="29">
-        <v>8154.68</v>
+        <v>1159</v>
       </c>
       <c r="E151" s="30">
         <v>0</v>
       </c>
       <c r="F151" s="31">
         <f t="shared" si="8"/>
-        <v>-8154.68</v>
+        <v>-1159</v>
       </c>
       <c r="G151" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6265,14 +6334,14 @@
         <v>451</v>
       </c>
       <c r="D152" s="29">
-        <v>52.78</v>
+        <v>614.17</v>
       </c>
       <c r="E152" s="30">
         <v>0</v>
       </c>
       <c r="F152" s="31">
         <f t="shared" si="8"/>
-        <v>-52.78</v>
+        <v>-614.17</v>
       </c>
       <c r="G152" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6291,14 +6360,14 @@
         <v>454</v>
       </c>
       <c r="D153" s="29">
-        <v>530.91</v>
+        <v>49.26</v>
       </c>
       <c r="E153" s="30">
         <v>0</v>
       </c>
       <c r="F153" s="31">
         <f t="shared" si="8"/>
-        <v>-530.91</v>
+        <v>-49.26</v>
       </c>
       <c r="G153" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6317,14 +6386,14 @@
         <v>457</v>
       </c>
       <c r="D154" s="29">
-        <v>722</v>
+        <v>14322.49</v>
       </c>
       <c r="E154" s="30">
         <v>0</v>
       </c>
       <c r="F154" s="31">
         <f t="shared" si="8"/>
-        <v>-722</v>
+        <v>-14322.49</v>
       </c>
       <c r="G154" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6343,14 +6412,14 @@
         <v>460</v>
       </c>
       <c r="D155" s="29">
-        <v>64.64</v>
+        <v>41431.12</v>
       </c>
       <c r="E155" s="30">
         <v>0</v>
       </c>
       <c r="F155" s="31">
         <f t="shared" si="8"/>
-        <v>-64.64</v>
+        <v>-41431.12</v>
       </c>
       <c r="G155" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6369,14 +6438,14 @@
         <v>463</v>
       </c>
       <c r="D156" s="29">
-        <v>4169.85</v>
+        <v>11004.68</v>
       </c>
       <c r="E156" s="30">
         <v>0</v>
       </c>
       <c r="F156" s="31">
         <f t="shared" si="8"/>
-        <v>-4169.85</v>
+        <v>-11004.68</v>
       </c>
       <c r="G156" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6395,14 +6464,14 @@
         <v>466</v>
       </c>
       <c r="D157" s="29">
-        <v>71771.44</v>
+        <v>352.78000000000003</v>
       </c>
       <c r="E157" s="30">
         <v>0</v>
       </c>
       <c r="F157" s="31">
         <f t="shared" si="8"/>
-        <v>-71771.44</v>
+        <v>-352.78000000000003</v>
       </c>
       <c r="G157" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6421,14 +6490,14 @@
         <v>469</v>
       </c>
       <c r="D158" s="29">
-        <v>0.19</v>
+        <v>710.91</v>
       </c>
       <c r="E158" s="30">
         <v>0</v>
       </c>
       <c r="F158" s="31">
         <f t="shared" si="8"/>
-        <v>-0.19</v>
+        <v>-710.91</v>
       </c>
       <c r="G158" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6447,14 +6516,14 @@
         <v>472</v>
       </c>
       <c r="D159" s="29">
-        <v>3342.15</v>
+        <v>1257</v>
       </c>
       <c r="E159" s="30">
         <v>0</v>
       </c>
       <c r="F159" s="31">
         <f t="shared" si="8"/>
-        <v>-3342.15</v>
+        <v>-1257</v>
       </c>
       <c r="G159" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6473,14 +6542,14 @@
         <v>475</v>
       </c>
       <c r="D160" s="29">
-        <v>0.86</v>
+        <v>564.64</v>
       </c>
       <c r="E160" s="30">
         <v>0</v>
       </c>
       <c r="F160" s="31">
         <f t="shared" si="8"/>
-        <v>-0.86</v>
+        <v>-564.64</v>
       </c>
       <c r="G160" s="32" t="str">
         <f t="shared" si="9"/>
@@ -6488,40 +6557,170 @@
       </c>
       <c r="H160" s="33"/>
     </row>
-    <row r="161" ht="31.9" customHeight="1" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="35" t="s">
+    <row r="161" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="B161" s="36"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="38">
-        <f>SUM(D8:D160)</f>
-        <v>5245979.3100000005</v>
-      </c>
-      <c r="E161" s="39">
-        <f>SUM(E8:E160)</f>
-        <v>0</v>
-      </c>
-      <c r="F161" s="40">
-        <f>SUM(F8:F160)</f>
-        <v>-5245979.3100000005</v>
-      </c>
-      <c r="G161" s="41" t="str">
+      <c r="B161" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D161" s="29">
+        <v>6169.85</v>
+      </c>
+      <c r="E161" s="30">
+        <v>0</v>
+      </c>
+      <c r="F161" s="31">
+        <f t="shared" si="8"/>
+        <v>-6169.85</v>
+      </c>
+      <c r="G161" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H161" s="42"/>
-    </row>
-    <row r="162" ht="27.6" customHeight="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="43" t="s">
-        <v>477</v>
-      </c>
-      <c r="B162" s="43"/>
-      <c r="F162" s="43" t="s">
-        <v>478</v>
-      </c>
-      <c r="G162" s="44"/>
-      <c r="H162" s="45"/>
+      <c r="H161" s="33"/>
+    </row>
+    <row r="162" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="D162" s="29">
+        <v>151146.44</v>
+      </c>
+      <c r="E162" s="30">
+        <v>0</v>
+      </c>
+      <c r="F162" s="31">
+        <f t="shared" si="8"/>
+        <v>-151146.44</v>
+      </c>
+      <c r="G162" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H162" s="33"/>
+    </row>
+    <row r="163" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D163" s="29">
+        <v>0.19</v>
+      </c>
+      <c r="E163" s="30">
+        <v>0</v>
+      </c>
+      <c r="F163" s="31">
+        <f t="shared" si="8"/>
+        <v>-0.19</v>
+      </c>
+      <c r="G163" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H163" s="33"/>
+    </row>
+    <row r="164" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D164" s="29">
+        <v>4692.150000000001</v>
+      </c>
+      <c r="E164" s="30">
+        <v>0</v>
+      </c>
+      <c r="F164" s="31">
+        <f t="shared" si="8"/>
+        <v>-4692.150000000001</v>
+      </c>
+      <c r="G164" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H164" s="33"/>
+    </row>
+    <row r="165" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D165" s="29">
+        <v>0.86</v>
+      </c>
+      <c r="E165" s="30">
+        <v>0</v>
+      </c>
+      <c r="F165" s="31">
+        <f t="shared" si="8"/>
+        <v>-0.86</v>
+      </c>
+      <c r="G165" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H165" s="33"/>
+    </row>
+    <row r="166" ht="31.9" customHeight="1" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="B166" s="36"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="38">
+        <f>SUM(D8:D165)</f>
+        <v>12775218.178860003</v>
+      </c>
+      <c r="E166" s="39">
+        <f>SUM(E8:E165)</f>
+        <v>0</v>
+      </c>
+      <c r="F166" s="40">
+        <f>SUM(F8:F165)</f>
+        <v>-12775218.178860003</v>
+      </c>
+      <c r="G166" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H166" s="42"/>
+    </row>
+    <row r="167" ht="27.6" customHeight="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="B167" s="43"/>
+      <c r="F167" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="G167" s="44"/>
+      <c r="H167" s="45"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/parseCOA4Bugget/all.xlsx
+++ b/parseCOA4Bugget/all.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="9495" windowHeight="5160"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="2" name="ALL" state="visible" r:id="rId4"/>
+    <sheet name="ALL" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ALL'!$A1:$H167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ALL!$A1:$H173</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
   <si>
     <t>EVA FLIGHT TRAINING ACADEMY</t>
   </si>
@@ -106,6 +106,15 @@
     <t>FURNITURES &amp; FIXTURES</t>
   </si>
   <si>
+    <t>1573**</t>
+  </si>
+  <si>
+    <t>EN01</t>
+  </si>
+  <si>
+    <t>ELECTRONIC COMPUTER</t>
+  </si>
+  <si>
     <t>1591A*</t>
   </si>
   <si>
@@ -1211,6 +1220,51 @@
   </si>
   <si>
     <t>TAXES-OTHERS</t>
+  </si>
+  <si>
+    <t>6215B*</t>
+  </si>
+  <si>
+    <t>VB01</t>
+  </si>
+  <si>
+    <t>DEPRECIATION-BUILDIHG</t>
+  </si>
+  <si>
+    <t>6215E*</t>
+  </si>
+  <si>
+    <t>VM09</t>
+  </si>
+  <si>
+    <t>DEPRECIATION-LAND IMPROVEMENT</t>
+  </si>
+  <si>
+    <t>6215L*</t>
+  </si>
+  <si>
+    <t>VC21</t>
+  </si>
+  <si>
+    <t>DEPRECIATION-TRAINING EQUIP.</t>
+  </si>
+  <si>
+    <t>6215O*</t>
+  </si>
+  <si>
+    <t>VD01</t>
+  </si>
+  <si>
+    <t>DEPRECIATION-FURNITURE &amp; FIXTURE</t>
+  </si>
+  <si>
+    <t>6215P*</t>
+  </si>
+  <si>
+    <t>VE01</t>
+  </si>
+  <si>
+    <t>DEPRECIATION-COMPUTER</t>
   </si>
   <si>
     <t>6219C*</t>
@@ -1500,10 +1554,10 @@
     </r>
     <r>
       <rPr>
-        <charset val="136"/>
-        <family val="4"/>
         <sz val="18"/>
         <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>：</t>
     </r>
@@ -1514,140 +1568,143 @@
     </r>
     <r>
       <rPr>
-        <charset val="136"/>
-        <family val="4"/>
         <sz val="18"/>
         <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
       </rPr>
       <t>：</t>
     </r>
+  </si>
+  <si>
+    <t>Item Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="12"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
-      <family val="1"/>
       <sz val="24"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="24"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="18"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
-      <family val="1"/>
       <sz val="18"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="18"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
-      <family val="1"/>
       <sz val="20"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <family val="1"/>
       <sz val="18"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <family val="1"/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <family val="1"/>
       <sz val="22"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color indexed="12"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="22"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="14"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
-      <family val="1"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <family val="1"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="12"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
-      <family val="1"/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <charset val="136"/>
-      <family val="4"/>
       <sz val="16"/>
       <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
-      <family val="1"/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2190,44 +2247,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2260,9 +2317,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2301,190 +2358,167 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" zoomScale="75" zoomScaleNormal="100">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="97.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="97.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2530,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +2542,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -2518,14 +2552,14 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" ht="26.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="26.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2535,7 +2569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="30.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30.6" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -2557,11 +2591,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="30.6" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30.6" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>512</v>
+      </c>
       <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
@@ -2579,7 +2615,7 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="52.9" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
@@ -2596,16 +2632,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="31">
-        <f t="shared" ref="F8:F39" si="0">E8-D8</f>
+        <f t="shared" ref="F8:F40" si="0">E8-D8</f>
         <v>-55902.21</v>
       </c>
       <c r="G8" s="32" t="str">
-        <f t="shared" ref="G8:G39" si="1">IF(E8=0,"-",IF(D8=0,"*",F8/D8))</f>
+        <f t="shared" ref="G8:G40" si="1">IF(E8=0,"-",IF(D8=0,"*",F8/D8))</f>
         <v>-</v>
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="52.9" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>20</v>
       </c>
@@ -2631,7 +2667,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="52.9" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -2657,7 +2693,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="52.9" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>26</v>
       </c>
@@ -2683,7 +2719,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="52.9" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>29</v>
       </c>
@@ -2694,14 +2730,14 @@
         <v>31</v>
       </c>
       <c r="D12" s="29">
-        <v>5241180.35287</v>
+        <v>0</v>
       </c>
       <c r="E12" s="30">
         <v>0</v>
       </c>
       <c r="F12" s="31">
         <f t="shared" si="0"/>
-        <v>-5241180.35287</v>
+        <v>0</v>
       </c>
       <c r="G12" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2709,7 +2745,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="52.9" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
@@ -2720,14 +2756,14 @@
         <v>34</v>
       </c>
       <c r="D13" s="29">
-        <v>3314258.01</v>
+        <v>108710.71</v>
       </c>
       <c r="E13" s="30">
         <v>0</v>
       </c>
       <c r="F13" s="31">
         <f t="shared" si="0"/>
-        <v>-3314258.01</v>
+        <v>-108710.71</v>
       </c>
       <c r="G13" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2735,7 +2771,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="52.9" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>35</v>
       </c>
@@ -2746,14 +2782,14 @@
         <v>37</v>
       </c>
       <c r="D14" s="29">
-        <v>75229.94</v>
+        <v>3314258.01</v>
       </c>
       <c r="E14" s="30">
         <v>0</v>
       </c>
       <c r="F14" s="31">
         <f t="shared" si="0"/>
-        <v>-75229.94</v>
+        <v>-3314258.01</v>
       </c>
       <c r="G14" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2761,7 +2797,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="52.9" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>38</v>
       </c>
@@ -2772,14 +2808,14 @@
         <v>40</v>
       </c>
       <c r="D15" s="29">
-        <v>100</v>
+        <v>75229.94</v>
       </c>
       <c r="E15" s="30">
         <v>0</v>
       </c>
       <c r="F15" s="31">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-75229.94</v>
       </c>
       <c r="G15" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2787,7 +2823,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="52.9" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>41</v>
       </c>
@@ -2798,14 +2834,14 @@
         <v>43</v>
       </c>
       <c r="D16" s="29">
-        <v>5200</v>
+        <v>100</v>
       </c>
       <c r="E16" s="30">
         <v>0</v>
       </c>
       <c r="F16" s="31">
         <f t="shared" si="0"/>
-        <v>-5200</v>
+        <v>-100</v>
       </c>
       <c r="G16" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2813,7 +2849,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="52.9" customHeight="1">
       <c r="A17" s="26" t="s">
         <v>44</v>
       </c>
@@ -2824,14 +2860,14 @@
         <v>46</v>
       </c>
       <c r="D17" s="29">
-        <v>9440.380000000001</v>
+        <v>5200</v>
       </c>
       <c r="E17" s="30">
         <v>0</v>
       </c>
       <c r="F17" s="31">
         <f t="shared" si="0"/>
-        <v>-9440.380000000001</v>
+        <v>-5200</v>
       </c>
       <c r="G17" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2839,7 +2875,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="52.9" customHeight="1">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -2850,14 +2886,14 @@
         <v>49</v>
       </c>
       <c r="D18" s="29">
-        <v>4535.52</v>
+        <v>9440.380000000001</v>
       </c>
       <c r="E18" s="30">
         <v>0</v>
       </c>
       <c r="F18" s="31">
         <f t="shared" si="0"/>
-        <v>-4535.52</v>
+        <v>-9440.380000000001</v>
       </c>
       <c r="G18" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2865,7 +2901,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="52.9" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>50</v>
       </c>
@@ -2876,14 +2912,14 @@
         <v>52</v>
       </c>
       <c r="D19" s="29">
-        <v>19678.2</v>
+        <v>4535.5200000000004</v>
       </c>
       <c r="E19" s="30">
         <v>0</v>
       </c>
       <c r="F19" s="31">
         <f t="shared" si="0"/>
-        <v>-19678.2</v>
+        <v>-4535.5200000000004</v>
       </c>
       <c r="G19" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2891,7 +2927,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="52.9" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>53</v>
       </c>
@@ -2902,14 +2938,14 @@
         <v>55</v>
       </c>
       <c r="D20" s="29">
-        <v>306824.016</v>
+        <v>19678.2</v>
       </c>
       <c r="E20" s="30">
         <v>0</v>
       </c>
       <c r="F20" s="31">
         <f t="shared" si="0"/>
-        <v>-306824.016</v>
+        <v>-19678.2</v>
       </c>
       <c r="G20" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2917,7 +2953,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="52.9" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>56</v>
       </c>
@@ -2928,14 +2964,14 @@
         <v>58</v>
       </c>
       <c r="D21" s="29">
-        <v>25</v>
+        <v>306824.016</v>
       </c>
       <c r="E21" s="30">
         <v>0</v>
       </c>
       <c r="F21" s="31">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-306824.016</v>
       </c>
       <c r="G21" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2943,7 +2979,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="52.9" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>59</v>
       </c>
@@ -2954,14 +2990,14 @@
         <v>61</v>
       </c>
       <c r="D22" s="29">
-        <v>29306.79</v>
+        <v>25</v>
       </c>
       <c r="E22" s="30">
         <v>0</v>
       </c>
       <c r="F22" s="31">
         <f t="shared" si="0"/>
-        <v>-29306.79</v>
+        <v>-25</v>
       </c>
       <c r="G22" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2969,7 +3005,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="52.9" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>62</v>
       </c>
@@ -2980,14 +3016,14 @@
         <v>64</v>
       </c>
       <c r="D23" s="29">
-        <v>27585.88</v>
+        <v>29306.79</v>
       </c>
       <c r="E23" s="30">
         <v>0</v>
       </c>
       <c r="F23" s="31">
         <f t="shared" si="0"/>
-        <v>-27585.88</v>
+        <v>-29306.79</v>
       </c>
       <c r="G23" s="32" t="str">
         <f t="shared" si="1"/>
@@ -2995,7 +3031,7 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="52.9" customHeight="1">
       <c r="A24" s="26" t="s">
         <v>65</v>
       </c>
@@ -3006,14 +3042,14 @@
         <v>67</v>
       </c>
       <c r="D24" s="29">
-        <v>1603.5</v>
+        <v>27585.88</v>
       </c>
       <c r="E24" s="30">
         <v>0</v>
       </c>
       <c r="F24" s="31">
         <f t="shared" si="0"/>
-        <v>-1603.5</v>
+        <v>-27585.88</v>
       </c>
       <c r="G24" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3021,7 +3057,7 @@
       </c>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="52.9" customHeight="1">
       <c r="A25" s="26" t="s">
         <v>68</v>
       </c>
@@ -3032,14 +3068,14 @@
         <v>70</v>
       </c>
       <c r="D25" s="29">
-        <v>125046.99999</v>
+        <v>1603.5</v>
       </c>
       <c r="E25" s="30">
         <v>0</v>
       </c>
       <c r="F25" s="31">
         <f t="shared" si="0"/>
-        <v>-125046.99999</v>
+        <v>-1603.5</v>
       </c>
       <c r="G25" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3047,7 +3083,7 @@
       </c>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="52.9" customHeight="1">
       <c r="A26" s="26" t="s">
         <v>71</v>
       </c>
@@ -3058,14 +3094,14 @@
         <v>73</v>
       </c>
       <c r="D26" s="29">
-        <v>22139.79</v>
+        <v>125046.99999</v>
       </c>
       <c r="E26" s="30">
         <v>0</v>
       </c>
       <c r="F26" s="31">
         <f t="shared" si="0"/>
-        <v>-22139.79</v>
+        <v>-125046.99999</v>
       </c>
       <c r="G26" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3073,7 +3109,7 @@
       </c>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="52.9" customHeight="1">
       <c r="A27" s="26" t="s">
         <v>74</v>
       </c>
@@ -3084,14 +3120,14 @@
         <v>76</v>
       </c>
       <c r="D27" s="29">
-        <v>21880.29</v>
+        <v>22139.79</v>
       </c>
       <c r="E27" s="30">
         <v>0</v>
       </c>
       <c r="F27" s="31">
         <f t="shared" si="0"/>
-        <v>-21880.29</v>
+        <v>-22139.79</v>
       </c>
       <c r="G27" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3099,7 +3135,7 @@
       </c>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="52.9" customHeight="1">
       <c r="A28" s="26" t="s">
         <v>77</v>
       </c>
@@ -3110,14 +3146,14 @@
         <v>79</v>
       </c>
       <c r="D28" s="29">
-        <v>2624</v>
+        <v>21880.29</v>
       </c>
       <c r="E28" s="30">
         <v>0</v>
       </c>
       <c r="F28" s="31">
         <f t="shared" si="0"/>
-        <v>-2624</v>
+        <v>-21880.29</v>
       </c>
       <c r="G28" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3125,7 +3161,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="52.9" customHeight="1">
       <c r="A29" s="26" t="s">
         <v>80</v>
       </c>
@@ -3136,14 +3172,14 @@
         <v>82</v>
       </c>
       <c r="D29" s="29">
-        <v>100</v>
+        <v>2624</v>
       </c>
       <c r="E29" s="30">
         <v>0</v>
       </c>
       <c r="F29" s="31">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-2624</v>
       </c>
       <c r="G29" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3151,7 +3187,7 @@
       </c>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="52.9" customHeight="1">
       <c r="A30" s="26" t="s">
         <v>83</v>
       </c>
@@ -3162,14 +3198,14 @@
         <v>85</v>
       </c>
       <c r="D30" s="29">
-        <v>182.79</v>
+        <v>100</v>
       </c>
       <c r="E30" s="30">
         <v>0</v>
       </c>
       <c r="F30" s="31">
         <f t="shared" si="0"/>
-        <v>-182.79</v>
+        <v>-100</v>
       </c>
       <c r="G30" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3177,7 +3213,7 @@
       </c>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="52.9" customHeight="1">
       <c r="A31" s="26" t="s">
         <v>86</v>
       </c>
@@ -3188,14 +3224,14 @@
         <v>88</v>
       </c>
       <c r="D31" s="29">
-        <v>3183.56</v>
+        <v>182.79</v>
       </c>
       <c r="E31" s="30">
         <v>0</v>
       </c>
       <c r="F31" s="31">
         <f t="shared" si="0"/>
-        <v>-3183.56</v>
+        <v>-182.79</v>
       </c>
       <c r="G31" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3203,7 +3239,7 @@
       </c>
       <c r="H31" s="33"/>
     </row>
-    <row r="32" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="52.9" customHeight="1">
       <c r="A32" s="26" t="s">
         <v>89</v>
       </c>
@@ -3214,14 +3250,14 @@
         <v>91</v>
       </c>
       <c r="D32" s="29">
-        <v>57589.35</v>
+        <v>3183.56</v>
       </c>
       <c r="E32" s="30">
         <v>0</v>
       </c>
       <c r="F32" s="31">
         <f t="shared" si="0"/>
-        <v>-57589.35</v>
+        <v>-3183.56</v>
       </c>
       <c r="G32" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3229,7 +3265,7 @@
       </c>
       <c r="H32" s="33"/>
     </row>
-    <row r="33" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="52.9" customHeight="1">
       <c r="A33" s="26" t="s">
         <v>92</v>
       </c>
@@ -3240,14 +3276,14 @@
         <v>94</v>
       </c>
       <c r="D33" s="29">
-        <v>204851.28</v>
+        <v>57589.35</v>
       </c>
       <c r="E33" s="30">
         <v>0</v>
       </c>
       <c r="F33" s="31">
         <f t="shared" si="0"/>
-        <v>-204851.28</v>
+        <v>-57589.35</v>
       </c>
       <c r="G33" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3255,7 +3291,7 @@
       </c>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="52.9" customHeight="1">
       <c r="A34" s="26" t="s">
         <v>95</v>
       </c>
@@ -3266,14 +3302,14 @@
         <v>97</v>
       </c>
       <c r="D34" s="29">
-        <v>5249.89</v>
+        <v>204851.28</v>
       </c>
       <c r="E34" s="30">
         <v>0</v>
       </c>
       <c r="F34" s="31">
         <f t="shared" si="0"/>
-        <v>-5249.89</v>
+        <v>-204851.28</v>
       </c>
       <c r="G34" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3281,7 +3317,7 @@
       </c>
       <c r="H34" s="33"/>
     </row>
-    <row r="35" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="52.9" customHeight="1">
       <c r="A35" s="26" t="s">
         <v>98</v>
       </c>
@@ -3292,14 +3328,14 @@
         <v>100</v>
       </c>
       <c r="D35" s="29">
-        <v>220053.31</v>
+        <v>5249.89</v>
       </c>
       <c r="E35" s="30">
         <v>0</v>
       </c>
       <c r="F35" s="31">
         <f t="shared" si="0"/>
-        <v>-220053.31</v>
+        <v>-5249.89</v>
       </c>
       <c r="G35" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3307,7 +3343,7 @@
       </c>
       <c r="H35" s="33"/>
     </row>
-    <row r="36" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="52.9" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>101</v>
       </c>
@@ -3318,14 +3354,14 @@
         <v>103</v>
       </c>
       <c r="D36" s="29">
-        <v>116270.05</v>
+        <v>220053.31</v>
       </c>
       <c r="E36" s="30">
         <v>0</v>
       </c>
       <c r="F36" s="31">
         <f t="shared" si="0"/>
-        <v>-116270.05</v>
+        <v>-220053.31</v>
       </c>
       <c r="G36" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3333,7 +3369,7 @@
       </c>
       <c r="H36" s="33"/>
     </row>
-    <row r="37" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="52.9" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>104</v>
       </c>
@@ -3344,14 +3380,14 @@
         <v>106</v>
       </c>
       <c r="D37" s="29">
-        <v>38183.55</v>
+        <v>116270.05</v>
       </c>
       <c r="E37" s="30">
         <v>0</v>
       </c>
       <c r="F37" s="31">
         <f t="shared" si="0"/>
-        <v>-38183.55</v>
+        <v>-116270.05</v>
       </c>
       <c r="G37" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3359,7 +3395,7 @@
       </c>
       <c r="H37" s="33"/>
     </row>
-    <row r="38" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="52.9" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>107</v>
       </c>
@@ -3370,14 +3406,14 @@
         <v>109</v>
       </c>
       <c r="D38" s="29">
-        <v>32.76</v>
+        <v>38183.550000000003</v>
       </c>
       <c r="E38" s="30">
         <v>0</v>
       </c>
       <c r="F38" s="31">
         <f t="shared" si="0"/>
-        <v>-32.76</v>
+        <v>-38183.550000000003</v>
       </c>
       <c r="G38" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3385,7 +3421,7 @@
       </c>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="52.9" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>110</v>
       </c>
@@ -3396,14 +3432,14 @@
         <v>112</v>
       </c>
       <c r="D39" s="29">
-        <v>2480.64</v>
+        <v>32.76</v>
       </c>
       <c r="E39" s="30">
         <v>0</v>
       </c>
       <c r="F39" s="31">
         <f t="shared" si="0"/>
-        <v>-2480.64</v>
+        <v>-32.76</v>
       </c>
       <c r="G39" s="32" t="str">
         <f t="shared" si="1"/>
@@ -3411,7 +3447,7 @@
       </c>
       <c r="H39" s="33"/>
     </row>
-    <row r="40" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="52.9" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>113</v>
       </c>
@@ -3422,22 +3458,22 @@
         <v>115</v>
       </c>
       <c r="D40" s="29">
-        <v>265942.96</v>
+        <v>2480.64</v>
       </c>
       <c r="E40" s="30">
         <v>0</v>
       </c>
       <c r="F40" s="31">
-        <f t="shared" ref="F40:F71" si="2">E40-D40</f>
-        <v>-265942.96</v>
+        <f t="shared" si="0"/>
+        <v>-2480.64</v>
       </c>
       <c r="G40" s="32" t="str">
-        <f t="shared" ref="G40:G71" si="3">IF(E40=0,"-",IF(D40=0,"*",F40/D40))</f>
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="H40" s="33"/>
     </row>
-    <row r="41" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="52.9" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>116</v>
       </c>
@@ -3448,334 +3484,334 @@
         <v>118</v>
       </c>
       <c r="D41" s="29">
+        <v>265942.96000000002</v>
+      </c>
+      <c r="E41" s="30">
+        <v>0</v>
+      </c>
+      <c r="F41" s="31">
+        <f t="shared" ref="F41:F72" si="2">E41-D41</f>
+        <v>-265942.96000000002</v>
+      </c>
+      <c r="G41" s="32" t="str">
+        <f t="shared" ref="G41:G72" si="3">IF(E41=0,"-",IF(D41=0,"*",F41/D41))</f>
+        <v>-</v>
+      </c>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A42" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="29">
         <v>90383.13</v>
       </c>
-      <c r="E41" s="30">
-        <v>0</v>
-      </c>
-      <c r="F41" s="31">
+      <c r="E42" s="30">
+        <v>0</v>
+      </c>
+      <c r="F42" s="31">
         <f t="shared" si="2"/>
         <v>-90383.13</v>
       </c>
-      <c r="G41" s="32" t="str">
+      <c r="G42" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="29">
+      <c r="H42" s="33"/>
+    </row>
+    <row r="43" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A43" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="29">
         <v>17098.07</v>
       </c>
-      <c r="E42" s="30">
-        <v>0</v>
-      </c>
-      <c r="F42" s="31">
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43" s="31">
         <f t="shared" si="2"/>
         <v>-17098.07</v>
       </c>
-      <c r="G42" s="32" t="str">
+      <c r="G43" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H42" s="33"/>
-    </row>
-    <row r="43" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="29">
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A44" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="29">
         <v>2632.7000000000003</v>
       </c>
-      <c r="E43" s="30">
-        <v>0</v>
-      </c>
-      <c r="F43" s="31">
+      <c r="E44" s="30">
+        <v>0</v>
+      </c>
+      <c r="F44" s="31">
         <f t="shared" si="2"/>
         <v>-2632.7000000000003</v>
       </c>
-      <c r="G43" s="32" t="str">
+      <c r="G44" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H43" s="33"/>
-    </row>
-    <row r="44" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="29">
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A45" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="29">
         <v>-2312.87</v>
       </c>
-      <c r="E44" s="30">
-        <v>0</v>
-      </c>
-      <c r="F44" s="31">
+      <c r="E45" s="30">
+        <v>0</v>
+      </c>
+      <c r="F45" s="31">
         <f t="shared" si="2"/>
         <v>2312.87</v>
       </c>
-      <c r="G44" s="32" t="str">
+      <c r="G45" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="29">
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A46" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="29">
         <v>148292.75</v>
       </c>
-      <c r="E45" s="30">
-        <v>0</v>
-      </c>
-      <c r="F45" s="31">
+      <c r="E46" s="30">
+        <v>0</v>
+      </c>
+      <c r="F46" s="31">
         <f t="shared" si="2"/>
         <v>-148292.75</v>
       </c>
-      <c r="G45" s="32" t="str">
+      <c r="G46" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H45" s="33"/>
-    </row>
-    <row r="46" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="29">
+      <c r="H46" s="33"/>
+    </row>
+    <row r="47" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A47" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="29">
         <v>168714.85</v>
       </c>
-      <c r="E46" s="30">
-        <v>0</v>
-      </c>
-      <c r="F46" s="31">
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+      <c r="F47" s="31">
         <f t="shared" si="2"/>
         <v>-168714.85</v>
       </c>
-      <c r="G46" s="32" t="str">
+      <c r="G47" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H46" s="33"/>
-    </row>
-    <row r="47" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="29">
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A48" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="29">
         <v>156440.85</v>
       </c>
-      <c r="E47" s="30">
-        <v>0</v>
-      </c>
-      <c r="F47" s="31">
+      <c r="E48" s="30">
+        <v>0</v>
+      </c>
+      <c r="F48" s="31">
         <f t="shared" si="2"/>
         <v>-156440.85</v>
       </c>
-      <c r="G47" s="32" t="str">
+      <c r="G48" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="29">
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A49" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="29">
         <v>10637.82</v>
       </c>
-      <c r="E48" s="30">
-        <v>0</v>
-      </c>
-      <c r="F48" s="31">
+      <c r="E49" s="30">
+        <v>0</v>
+      </c>
+      <c r="F49" s="31">
         <f t="shared" si="2"/>
         <v>-10637.82</v>
       </c>
-      <c r="G48" s="32" t="str">
+      <c r="G49" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="29">
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A50" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="29">
         <v>39849</v>
       </c>
-      <c r="E49" s="30">
-        <v>0</v>
-      </c>
-      <c r="F49" s="31">
+      <c r="E50" s="30">
+        <v>0</v>
+      </c>
+      <c r="F50" s="31">
         <f t="shared" si="2"/>
         <v>-39849</v>
       </c>
-      <c r="G49" s="32" t="str">
+      <c r="G50" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="29">
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A51" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="29">
         <v>2500</v>
       </c>
-      <c r="E50" s="30">
-        <v>0</v>
-      </c>
-      <c r="F50" s="31">
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+      <c r="F51" s="31">
         <f t="shared" si="2"/>
         <v>-2500</v>
       </c>
-      <c r="G50" s="32" t="str">
+      <c r="G51" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="29">
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A52" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="29">
         <v>1000</v>
       </c>
-      <c r="E51" s="30">
-        <v>0</v>
-      </c>
-      <c r="F51" s="31">
+      <c r="E52" s="30">
+        <v>0</v>
+      </c>
+      <c r="F52" s="31">
         <f t="shared" si="2"/>
         <v>-1000</v>
       </c>
-      <c r="G51" s="32" t="str">
+      <c r="G52" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="H51" s="33"/>
-    </row>
-    <row r="52" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="29">
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A53" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="29">
         <v>2639.66</v>
       </c>
-      <c r="E52" s="30">
-        <v>0</v>
-      </c>
-      <c r="F52" s="31">
+      <c r="E53" s="30">
+        <v>0</v>
+      </c>
+      <c r="F53" s="31">
         <f t="shared" si="2"/>
         <v>-2639.66</v>
       </c>
-      <c r="G52" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="53" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="29">
-        <v>81729.90000000001</v>
-      </c>
-      <c r="E53" s="30">
-        <v>0</v>
-      </c>
-      <c r="F53" s="31">
-        <f t="shared" si="2"/>
-        <v>-81729.90000000001</v>
-      </c>
       <c r="G53" s="32" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="H53" s="33"/>
     </row>
-    <row r="54" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="52.9" customHeight="1">
       <c r="A54" s="26" t="s">
         <v>155</v>
       </c>
@@ -3786,14 +3822,14 @@
         <v>157</v>
       </c>
       <c r="D54" s="29">
-        <v>11758</v>
+        <v>81729.900000000009</v>
       </c>
       <c r="E54" s="30">
         <v>0</v>
       </c>
       <c r="F54" s="31">
         <f t="shared" si="2"/>
-        <v>-11758</v>
+        <v>-81729.900000000009</v>
       </c>
       <c r="G54" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3801,7 +3837,7 @@
       </c>
       <c r="H54" s="33"/>
     </row>
-    <row r="55" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="52.9" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>158</v>
       </c>
@@ -3812,14 +3848,14 @@
         <v>160</v>
       </c>
       <c r="D55" s="29">
-        <v>8306.6</v>
+        <v>11758</v>
       </c>
       <c r="E55" s="30">
         <v>0</v>
       </c>
       <c r="F55" s="31">
         <f t="shared" si="2"/>
-        <v>-8306.6</v>
+        <v>-11758</v>
       </c>
       <c r="G55" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3827,7 +3863,7 @@
       </c>
       <c r="H55" s="33"/>
     </row>
-    <row r="56" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="52.9" customHeight="1">
       <c r="A56" s="26" t="s">
         <v>161</v>
       </c>
@@ -3838,14 +3874,14 @@
         <v>163</v>
       </c>
       <c r="D56" s="29">
-        <v>980</v>
+        <v>8306.6</v>
       </c>
       <c r="E56" s="30">
         <v>0</v>
       </c>
       <c r="F56" s="31">
         <f t="shared" si="2"/>
-        <v>-980</v>
+        <v>-8306.6</v>
       </c>
       <c r="G56" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3853,7 +3889,7 @@
       </c>
       <c r="H56" s="33"/>
     </row>
-    <row r="57" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="52.9" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>164</v>
       </c>
@@ -3864,14 +3900,14 @@
         <v>166</v>
       </c>
       <c r="D57" s="29">
-        <v>79296.46</v>
+        <v>980</v>
       </c>
       <c r="E57" s="30">
         <v>0</v>
       </c>
       <c r="F57" s="31">
         <f t="shared" si="2"/>
-        <v>-79296.46</v>
+        <v>-980</v>
       </c>
       <c r="G57" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3879,7 +3915,7 @@
       </c>
       <c r="H57" s="33"/>
     </row>
-    <row r="58" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="52.9" customHeight="1">
       <c r="A58" s="26" t="s">
         <v>167</v>
       </c>
@@ -3890,14 +3926,14 @@
         <v>169</v>
       </c>
       <c r="D58" s="29">
-        <v>1390.29</v>
+        <v>79296.460000000006</v>
       </c>
       <c r="E58" s="30">
         <v>0</v>
       </c>
       <c r="F58" s="31">
         <f t="shared" si="2"/>
-        <v>-1390.29</v>
+        <v>-79296.460000000006</v>
       </c>
       <c r="G58" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3905,7 +3941,7 @@
       </c>
       <c r="H58" s="33"/>
     </row>
-    <row r="59" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="52.9" customHeight="1">
       <c r="A59" s="26" t="s">
         <v>170</v>
       </c>
@@ -3916,14 +3952,14 @@
         <v>172</v>
       </c>
       <c r="D59" s="29">
-        <v>1492.04</v>
+        <v>1390.29</v>
       </c>
       <c r="E59" s="30">
         <v>0</v>
       </c>
       <c r="F59" s="31">
         <f t="shared" si="2"/>
-        <v>-1492.04</v>
+        <v>-1390.29</v>
       </c>
       <c r="G59" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3931,7 +3967,7 @@
       </c>
       <c r="H59" s="33"/>
     </row>
-    <row r="60" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="52.9" customHeight="1">
       <c r="A60" s="26" t="s">
         <v>173</v>
       </c>
@@ -3942,14 +3978,14 @@
         <v>175</v>
       </c>
       <c r="D60" s="29">
-        <v>5098.55</v>
+        <v>1492.04</v>
       </c>
       <c r="E60" s="30">
         <v>0</v>
       </c>
       <c r="F60" s="31">
         <f t="shared" si="2"/>
-        <v>-5098.55</v>
+        <v>-1492.04</v>
       </c>
       <c r="G60" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3957,7 +3993,7 @@
       </c>
       <c r="H60" s="33"/>
     </row>
-    <row r="61" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="52.9" customHeight="1">
       <c r="A61" s="26" t="s">
         <v>176</v>
       </c>
@@ -3968,14 +4004,14 @@
         <v>178</v>
       </c>
       <c r="D61" s="29">
-        <v>2727.2400000000002</v>
+        <v>5098.55</v>
       </c>
       <c r="E61" s="30">
         <v>0</v>
       </c>
       <c r="F61" s="31">
         <f t="shared" si="2"/>
-        <v>-2727.2400000000002</v>
+        <v>-5098.55</v>
       </c>
       <c r="G61" s="32" t="str">
         <f t="shared" si="3"/>
@@ -3983,7 +4019,7 @@
       </c>
       <c r="H61" s="33"/>
     </row>
-    <row r="62" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="52.9" customHeight="1">
       <c r="A62" s="26" t="s">
         <v>179</v>
       </c>
@@ -3994,14 +4030,14 @@
         <v>181</v>
       </c>
       <c r="D62" s="29">
-        <v>67380</v>
+        <v>2727.2400000000002</v>
       </c>
       <c r="E62" s="30">
         <v>0</v>
       </c>
       <c r="F62" s="31">
         <f t="shared" si="2"/>
-        <v>-67380</v>
+        <v>-2727.2400000000002</v>
       </c>
       <c r="G62" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4009,7 +4045,7 @@
       </c>
       <c r="H62" s="33"/>
     </row>
-    <row r="63" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="52.9" customHeight="1">
       <c r="A63" s="26" t="s">
         <v>182</v>
       </c>
@@ -4020,14 +4056,14 @@
         <v>184</v>
       </c>
       <c r="D63" s="29">
-        <v>453</v>
+        <v>54980</v>
       </c>
       <c r="E63" s="30">
         <v>0</v>
       </c>
       <c r="F63" s="31">
         <f t="shared" si="2"/>
-        <v>-453</v>
+        <v>-54980</v>
       </c>
       <c r="G63" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4035,7 +4071,7 @@
       </c>
       <c r="H63" s="33"/>
     </row>
-    <row r="64" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="52.9" customHeight="1">
       <c r="A64" s="26" t="s">
         <v>185</v>
       </c>
@@ -4046,14 +4082,14 @@
         <v>187</v>
       </c>
       <c r="D64" s="29">
-        <v>4011.03</v>
+        <v>453</v>
       </c>
       <c r="E64" s="30">
         <v>0</v>
       </c>
       <c r="F64" s="31">
         <f t="shared" si="2"/>
-        <v>-4011.03</v>
+        <v>-453</v>
       </c>
       <c r="G64" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4061,7 +4097,7 @@
       </c>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="52.9" customHeight="1">
       <c r="A65" s="26" t="s">
         <v>188</v>
       </c>
@@ -4072,14 +4108,14 @@
         <v>190</v>
       </c>
       <c r="D65" s="29">
-        <v>4134.01</v>
+        <v>4011.03</v>
       </c>
       <c r="E65" s="30">
         <v>0</v>
       </c>
       <c r="F65" s="31">
         <f t="shared" si="2"/>
-        <v>-4134.01</v>
+        <v>-4011.03</v>
       </c>
       <c r="G65" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4087,7 +4123,7 @@
       </c>
       <c r="H65" s="33"/>
     </row>
-    <row r="66" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="52.9" customHeight="1">
       <c r="A66" s="26" t="s">
         <v>191</v>
       </c>
@@ -4098,14 +4134,14 @@
         <v>193</v>
       </c>
       <c r="D66" s="29">
-        <v>1661.16</v>
+        <v>4134.01</v>
       </c>
       <c r="E66" s="30">
         <v>0</v>
       </c>
       <c r="F66" s="31">
         <f t="shared" si="2"/>
-        <v>-1661.16</v>
+        <v>-4134.01</v>
       </c>
       <c r="G66" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4113,7 +4149,7 @@
       </c>
       <c r="H66" s="33"/>
     </row>
-    <row r="67" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="52.9" customHeight="1">
       <c r="A67" s="26" t="s">
         <v>194</v>
       </c>
@@ -4124,14 +4160,14 @@
         <v>196</v>
       </c>
       <c r="D67" s="29">
-        <v>2175.05</v>
+        <v>1661.16</v>
       </c>
       <c r="E67" s="30">
         <v>0</v>
       </c>
       <c r="F67" s="31">
         <f t="shared" si="2"/>
-        <v>-2175.05</v>
+        <v>-1661.16</v>
       </c>
       <c r="G67" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4139,7 +4175,7 @@
       </c>
       <c r="H67" s="33"/>
     </row>
-    <row r="68" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="52.9" customHeight="1">
       <c r="A68" s="26" t="s">
         <v>197</v>
       </c>
@@ -4150,14 +4186,14 @@
         <v>199</v>
       </c>
       <c r="D68" s="29">
-        <v>434.48</v>
+        <v>2175.0500000000002</v>
       </c>
       <c r="E68" s="30">
         <v>0</v>
       </c>
       <c r="F68" s="31">
         <f t="shared" si="2"/>
-        <v>-434.48</v>
+        <v>-2175.0500000000002</v>
       </c>
       <c r="G68" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4165,7 +4201,7 @@
       </c>
       <c r="H68" s="33"/>
     </row>
-    <row r="69" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="52.9" customHeight="1">
       <c r="A69" s="26" t="s">
         <v>200</v>
       </c>
@@ -4176,14 +4212,14 @@
         <v>202</v>
       </c>
       <c r="D69" s="29">
-        <v>165333.16</v>
+        <v>434.48</v>
       </c>
       <c r="E69" s="30">
         <v>0</v>
       </c>
       <c r="F69" s="31">
         <f t="shared" si="2"/>
-        <v>-165333.16</v>
+        <v>-434.48</v>
       </c>
       <c r="G69" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4191,7 +4227,7 @@
       </c>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="52.9" customHeight="1">
       <c r="A70" s="26" t="s">
         <v>203</v>
       </c>
@@ -4202,14 +4238,14 @@
         <v>205</v>
       </c>
       <c r="D70" s="29">
-        <v>27522.74</v>
+        <v>165333.16</v>
       </c>
       <c r="E70" s="30">
         <v>0</v>
       </c>
       <c r="F70" s="31">
         <f t="shared" si="2"/>
-        <v>-27522.74</v>
+        <v>-165333.16</v>
       </c>
       <c r="G70" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4217,7 +4253,7 @@
       </c>
       <c r="H70" s="33"/>
     </row>
-    <row r="71" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="52.9" customHeight="1">
       <c r="A71" s="26" t="s">
         <v>206</v>
       </c>
@@ -4228,14 +4264,14 @@
         <v>208</v>
       </c>
       <c r="D71" s="29">
-        <v>151.65</v>
+        <v>27522.74</v>
       </c>
       <c r="E71" s="30">
         <v>0</v>
       </c>
       <c r="F71" s="31">
         <f t="shared" si="2"/>
-        <v>-151.65</v>
+        <v>-27522.74</v>
       </c>
       <c r="G71" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4243,7 +4279,7 @@
       </c>
       <c r="H71" s="33"/>
     </row>
-    <row r="72" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="52.9" customHeight="1">
       <c r="A72" s="26" t="s">
         <v>209</v>
       </c>
@@ -4254,22 +4290,22 @@
         <v>211</v>
       </c>
       <c r="D72" s="29">
-        <v>18</v>
+        <v>151.65</v>
       </c>
       <c r="E72" s="30">
         <v>0</v>
       </c>
       <c r="F72" s="31">
-        <f t="shared" ref="F72:F103" si="4">E72-D72</f>
-        <v>-18</v>
+        <f t="shared" si="2"/>
+        <v>-151.65</v>
       </c>
       <c r="G72" s="32" t="str">
-        <f t="shared" ref="G72:G103" si="5">IF(E72=0,"-",IF(D72=0,"*",F72/D72))</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="H72" s="33"/>
     </row>
-    <row r="73" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="52.9" customHeight="1">
       <c r="A73" s="26" t="s">
         <v>212</v>
       </c>
@@ -4280,204 +4316,204 @@
         <v>214</v>
       </c>
       <c r="D73" s="29">
+        <v>18</v>
+      </c>
+      <c r="E73" s="30">
+        <v>0</v>
+      </c>
+      <c r="F73" s="31">
+        <f t="shared" ref="F73:F104" si="4">E73-D73</f>
         <v>-18</v>
       </c>
-      <c r="E73" s="30">
-        <v>0</v>
-      </c>
-      <c r="F73" s="31">
+      <c r="G73" s="32" t="str">
+        <f t="shared" ref="G73:G104" si="5">IF(E73=0,"-",IF(D73=0,"*",F73/D73))</f>
+        <v>-</v>
+      </c>
+      <c r="H73" s="33"/>
+    </row>
+    <row r="74" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A74" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="29">
+        <v>-18</v>
+      </c>
+      <c r="E74" s="30">
+        <v>0</v>
+      </c>
+      <c r="F74" s="31">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G73" s="32" t="str">
+      <c r="G74" s="32" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="H73" s="33"/>
-    </row>
-    <row r="74" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="29">
+      <c r="H74" s="33"/>
+    </row>
+    <row r="75" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A75" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="29">
         <v>20829.36</v>
       </c>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74" s="31">
+      <c r="E75" s="30">
+        <v>0</v>
+      </c>
+      <c r="F75" s="31">
         <f t="shared" si="4"/>
         <v>-20829.36</v>
       </c>
-      <c r="G74" s="32" t="str">
+      <c r="G75" s="32" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="H74" s="33"/>
-    </row>
-    <row r="75" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" s="29">
+      <c r="H75" s="33"/>
+    </row>
+    <row r="76" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A76" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="29">
         <v>70377.17</v>
       </c>
-      <c r="E75" s="30">
-        <v>0</v>
-      </c>
-      <c r="F75" s="31">
+      <c r="E76" s="30">
+        <v>0</v>
+      </c>
+      <c r="F76" s="31">
         <f t="shared" si="4"/>
         <v>-70377.17</v>
       </c>
-      <c r="G75" s="32" t="str">
+      <c r="G76" s="32" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="H75" s="33"/>
-    </row>
-    <row r="76" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D76" s="29">
+      <c r="H76" s="33"/>
+    </row>
+    <row r="77" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A77" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="29">
         <v>20759</v>
       </c>
-      <c r="E76" s="30">
-        <v>0</v>
-      </c>
-      <c r="F76" s="31">
+      <c r="E77" s="30">
+        <v>0</v>
+      </c>
+      <c r="F77" s="31">
         <f t="shared" si="4"/>
         <v>-20759</v>
       </c>
-      <c r="G76" s="32" t="str">
+      <c r="G77" s="32" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="H76" s="33"/>
-    </row>
-    <row r="77" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="29">
+      <c r="H77" s="33"/>
+    </row>
+    <row r="78" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A78" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="29">
         <v>8294.880000000001</v>
       </c>
-      <c r="E77" s="30">
-        <v>0</v>
-      </c>
-      <c r="F77" s="31">
+      <c r="E78" s="30">
+        <v>0</v>
+      </c>
+      <c r="F78" s="31">
         <f t="shared" si="4"/>
         <v>-8294.880000000001</v>
       </c>
-      <c r="G77" s="32" t="str">
+      <c r="G78" s="32" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="H77" s="33"/>
-    </row>
-    <row r="78" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="29">
+      <c r="H78" s="33"/>
+    </row>
+    <row r="79" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A79" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="29">
         <v>983.4</v>
       </c>
-      <c r="E78" s="30">
-        <v>0</v>
-      </c>
-      <c r="F78" s="31">
+      <c r="E79" s="30">
+        <v>0</v>
+      </c>
+      <c r="F79" s="31">
         <f t="shared" si="4"/>
         <v>-983.4</v>
       </c>
-      <c r="G78" s="32" t="str">
+      <c r="G79" s="32" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="H78" s="33"/>
-    </row>
-    <row r="79" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D79" s="29">
+      <c r="H79" s="33"/>
+    </row>
+    <row r="80" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A80" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="29">
         <v>22167.510000000002</v>
       </c>
-      <c r="E79" s="30">
-        <v>0</v>
-      </c>
-      <c r="F79" s="31">
+      <c r="E80" s="30">
+        <v>0</v>
+      </c>
+      <c r="F80" s="31">
         <f t="shared" si="4"/>
         <v>-22167.510000000002</v>
       </c>
-      <c r="G79" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="H79" s="33"/>
-    </row>
-    <row r="80" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="29">
-        <v>6089.650000000001</v>
-      </c>
-      <c r="E80" s="30">
-        <v>0</v>
-      </c>
-      <c r="F80" s="31">
-        <f t="shared" si="4"/>
-        <v>-6089.650000000001</v>
-      </c>
       <c r="G80" s="32" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="H80" s="33"/>
     </row>
-    <row r="81" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="52.9" customHeight="1">
       <c r="A81" s="26" t="s">
         <v>236</v>
       </c>
@@ -4488,14 +4524,14 @@
         <v>238</v>
       </c>
       <c r="D81" s="29">
-        <v>6182.78</v>
+        <v>6089.6500000000005</v>
       </c>
       <c r="E81" s="30">
         <v>0</v>
       </c>
       <c r="F81" s="31">
         <f t="shared" si="4"/>
-        <v>-6182.78</v>
+        <v>-6089.6500000000005</v>
       </c>
       <c r="G81" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4503,7 +4539,7 @@
       </c>
       <c r="H81" s="33"/>
     </row>
-    <row r="82" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="52.9" customHeight="1">
       <c r="A82" s="26" t="s">
         <v>239</v>
       </c>
@@ -4514,14 +4550,14 @@
         <v>241</v>
       </c>
       <c r="D82" s="29">
-        <v>270.92</v>
+        <v>6182.78</v>
       </c>
       <c r="E82" s="30">
         <v>0</v>
       </c>
       <c r="F82" s="31">
         <f t="shared" si="4"/>
-        <v>-270.92</v>
+        <v>-6182.78</v>
       </c>
       <c r="G82" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4529,7 +4565,7 @@
       </c>
       <c r="H82" s="33"/>
     </row>
-    <row r="83" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="52.9" customHeight="1">
       <c r="A83" s="26" t="s">
         <v>242</v>
       </c>
@@ -4540,14 +4576,14 @@
         <v>244</v>
       </c>
       <c r="D83" s="29">
-        <v>1750.55</v>
+        <v>270.92</v>
       </c>
       <c r="E83" s="30">
         <v>0</v>
       </c>
       <c r="F83" s="31">
         <f t="shared" si="4"/>
-        <v>-1750.55</v>
+        <v>-270.92</v>
       </c>
       <c r="G83" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4555,7 +4591,7 @@
       </c>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="52.9" customHeight="1">
       <c r="A84" s="26" t="s">
         <v>245</v>
       </c>
@@ -4566,14 +4602,14 @@
         <v>247</v>
       </c>
       <c r="D84" s="29">
-        <v>490</v>
+        <v>1750.55</v>
       </c>
       <c r="E84" s="30">
         <v>0</v>
       </c>
       <c r="F84" s="31">
         <f t="shared" si="4"/>
-        <v>-490</v>
+        <v>-1750.55</v>
       </c>
       <c r="G84" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4581,7 +4617,7 @@
       </c>
       <c r="H84" s="33"/>
     </row>
-    <row r="85" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="52.9" customHeight="1">
       <c r="A85" s="26" t="s">
         <v>248</v>
       </c>
@@ -4592,14 +4628,14 @@
         <v>250</v>
       </c>
       <c r="D85" s="29">
-        <v>1325.38</v>
+        <v>490</v>
       </c>
       <c r="E85" s="30">
         <v>0</v>
       </c>
       <c r="F85" s="31">
         <f t="shared" si="4"/>
-        <v>-1325.38</v>
+        <v>-490</v>
       </c>
       <c r="G85" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4607,7 +4643,7 @@
       </c>
       <c r="H85" s="33"/>
     </row>
-    <row r="86" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="52.9" customHeight="1">
       <c r="A86" s="26" t="s">
         <v>251</v>
       </c>
@@ -4618,14 +4654,14 @@
         <v>253</v>
       </c>
       <c r="D86" s="29">
-        <v>11157.300000000001</v>
+        <v>1325.38</v>
       </c>
       <c r="E86" s="30">
         <v>0</v>
       </c>
       <c r="F86" s="31">
         <f t="shared" si="4"/>
-        <v>-11157.300000000001</v>
+        <v>-1325.38</v>
       </c>
       <c r="G86" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4633,7 +4669,7 @@
       </c>
       <c r="H86" s="33"/>
     </row>
-    <row r="87" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="52.9" customHeight="1">
       <c r="A87" s="26" t="s">
         <v>254</v>
       </c>
@@ -4644,14 +4680,14 @@
         <v>256</v>
       </c>
       <c r="D87" s="29">
-        <v>372</v>
+        <v>11157.300000000001</v>
       </c>
       <c r="E87" s="30">
         <v>0</v>
       </c>
       <c r="F87" s="31">
         <f t="shared" si="4"/>
-        <v>-372</v>
+        <v>-11157.300000000001</v>
       </c>
       <c r="G87" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4659,7 +4695,7 @@
       </c>
       <c r="H87" s="33"/>
     </row>
-    <row r="88" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="52.9" customHeight="1">
       <c r="A88" s="26" t="s">
         <v>257</v>
       </c>
@@ -4670,14 +4706,14 @@
         <v>259</v>
       </c>
       <c r="D88" s="29">
-        <v>6957</v>
+        <v>372</v>
       </c>
       <c r="E88" s="30">
         <v>0</v>
       </c>
       <c r="F88" s="31">
         <f t="shared" si="4"/>
-        <v>-6957</v>
+        <v>-372</v>
       </c>
       <c r="G88" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4685,7 +4721,7 @@
       </c>
       <c r="H88" s="33"/>
     </row>
-    <row r="89" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="52.9" customHeight="1">
       <c r="A89" s="26" t="s">
         <v>260</v>
       </c>
@@ -4696,14 +4732,14 @@
         <v>262</v>
       </c>
       <c r="D89" s="29">
-        <v>2061</v>
+        <v>6957</v>
       </c>
       <c r="E89" s="30">
         <v>0</v>
       </c>
       <c r="F89" s="31">
         <f t="shared" si="4"/>
-        <v>-2061</v>
+        <v>-6957</v>
       </c>
       <c r="G89" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4711,7 +4747,7 @@
       </c>
       <c r="H89" s="33"/>
     </row>
-    <row r="90" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="52.9" customHeight="1">
       <c r="A90" s="26" t="s">
         <v>263</v>
       </c>
@@ -4722,14 +4758,14 @@
         <v>265</v>
       </c>
       <c r="D90" s="29">
-        <v>360.38</v>
+        <v>2061</v>
       </c>
       <c r="E90" s="30">
         <v>0</v>
       </c>
       <c r="F90" s="31">
         <f t="shared" si="4"/>
-        <v>-360.38</v>
+        <v>-2061</v>
       </c>
       <c r="G90" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4737,7 +4773,7 @@
       </c>
       <c r="H90" s="33"/>
     </row>
-    <row r="91" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="52.9" customHeight="1">
       <c r="A91" s="26" t="s">
         <v>266</v>
       </c>
@@ -4748,14 +4784,14 @@
         <v>268</v>
       </c>
       <c r="D91" s="29">
-        <v>1435.89</v>
+        <v>360.38</v>
       </c>
       <c r="E91" s="30">
         <v>0</v>
       </c>
       <c r="F91" s="31">
         <f t="shared" si="4"/>
-        <v>-1435.89</v>
+        <v>-360.38</v>
       </c>
       <c r="G91" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4763,7 +4799,7 @@
       </c>
       <c r="H91" s="33"/>
     </row>
-    <row r="92" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="52.9" customHeight="1">
       <c r="A92" s="26" t="s">
         <v>269</v>
       </c>
@@ -4774,14 +4810,14 @@
         <v>271</v>
       </c>
       <c r="D92" s="29">
-        <v>317247.17</v>
+        <v>1435.89</v>
       </c>
       <c r="E92" s="30">
         <v>0</v>
       </c>
       <c r="F92" s="31">
         <f t="shared" si="4"/>
-        <v>-317247.17</v>
+        <v>-1435.89</v>
       </c>
       <c r="G92" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4789,7 +4825,7 @@
       </c>
       <c r="H92" s="33"/>
     </row>
-    <row r="93" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="52.9" customHeight="1">
       <c r="A93" s="26" t="s">
         <v>272</v>
       </c>
@@ -4800,14 +4836,14 @@
         <v>274</v>
       </c>
       <c r="D93" s="29">
-        <v>28196.62</v>
+        <v>317247.17</v>
       </c>
       <c r="E93" s="30">
         <v>0</v>
       </c>
       <c r="F93" s="31">
         <f t="shared" si="4"/>
-        <v>-28196.62</v>
+        <v>-317247.17</v>
       </c>
       <c r="G93" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4815,7 +4851,7 @@
       </c>
       <c r="H93" s="33"/>
     </row>
-    <row r="94" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="52.9" customHeight="1">
       <c r="A94" s="26" t="s">
         <v>275</v>
       </c>
@@ -4826,14 +4862,14 @@
         <v>277</v>
       </c>
       <c r="D94" s="29">
-        <v>16267.56</v>
+        <v>28196.62</v>
       </c>
       <c r="E94" s="30">
         <v>0</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="4"/>
-        <v>-16267.56</v>
+        <v>-28196.62</v>
       </c>
       <c r="G94" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4841,7 +4877,7 @@
       </c>
       <c r="H94" s="33"/>
     </row>
-    <row r="95" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="52.9" customHeight="1">
       <c r="A95" s="26" t="s">
         <v>278</v>
       </c>
@@ -4852,14 +4888,14 @@
         <v>280</v>
       </c>
       <c r="D95" s="29">
-        <v>10157.28</v>
+        <v>16267.56</v>
       </c>
       <c r="E95" s="30">
         <v>0</v>
       </c>
       <c r="F95" s="31">
         <f t="shared" si="4"/>
-        <v>-10157.28</v>
+        <v>-16267.56</v>
       </c>
       <c r="G95" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4867,7 +4903,7 @@
       </c>
       <c r="H95" s="33"/>
     </row>
-    <row r="96" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="52.9" customHeight="1">
       <c r="A96" s="26" t="s">
         <v>281</v>
       </c>
@@ -4878,14 +4914,14 @@
         <v>283</v>
       </c>
       <c r="D96" s="29">
-        <v>-3156.56</v>
+        <v>10157.280000000001</v>
       </c>
       <c r="E96" s="30">
         <v>0</v>
       </c>
       <c r="F96" s="31">
         <f t="shared" si="4"/>
-        <v>3156.56</v>
+        <v>-10157.280000000001</v>
       </c>
       <c r="G96" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4893,7 +4929,7 @@
       </c>
       <c r="H96" s="33"/>
     </row>
-    <row r="97" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="52.9" customHeight="1">
       <c r="A97" s="26" t="s">
         <v>284</v>
       </c>
@@ -4904,14 +4940,14 @@
         <v>286</v>
       </c>
       <c r="D97" s="29">
-        <v>2782.94</v>
+        <v>-3156.56</v>
       </c>
       <c r="E97" s="30">
         <v>0</v>
       </c>
       <c r="F97" s="31">
         <f t="shared" si="4"/>
-        <v>-2782.94</v>
+        <v>3156.56</v>
       </c>
       <c r="G97" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4919,7 +4955,7 @@
       </c>
       <c r="H97" s="33"/>
     </row>
-    <row r="98" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="52.9" customHeight="1">
       <c r="A98" s="26" t="s">
         <v>287</v>
       </c>
@@ -4930,14 +4966,14 @@
         <v>289</v>
       </c>
       <c r="D98" s="29">
-        <v>46003.44</v>
+        <v>2782.94</v>
       </c>
       <c r="E98" s="30">
         <v>0</v>
       </c>
       <c r="F98" s="31">
         <f t="shared" si="4"/>
-        <v>-46003.44</v>
+        <v>-2782.94</v>
       </c>
       <c r="G98" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4945,7 +4981,7 @@
       </c>
       <c r="H98" s="33"/>
     </row>
-    <row r="99" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="52.9" customHeight="1">
       <c r="A99" s="26" t="s">
         <v>290</v>
       </c>
@@ -4956,14 +4992,14 @@
         <v>292</v>
       </c>
       <c r="D99" s="29">
-        <v>31443</v>
+        <v>46003.44</v>
       </c>
       <c r="E99" s="30">
         <v>0</v>
       </c>
       <c r="F99" s="31">
         <f t="shared" si="4"/>
-        <v>-31443</v>
+        <v>-46003.44</v>
       </c>
       <c r="G99" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4971,7 +5007,7 @@
       </c>
       <c r="H99" s="33"/>
     </row>
-    <row r="100" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="52.9" customHeight="1">
       <c r="A100" s="26" t="s">
         <v>293</v>
       </c>
@@ -4982,14 +5018,14 @@
         <v>295</v>
       </c>
       <c r="D100" s="29">
-        <v>35982.57</v>
+        <v>31443</v>
       </c>
       <c r="E100" s="30">
         <v>0</v>
       </c>
       <c r="F100" s="31">
         <f t="shared" si="4"/>
-        <v>-35982.57</v>
+        <v>-31443</v>
       </c>
       <c r="G100" s="32" t="str">
         <f t="shared" si="5"/>
@@ -4997,7 +5033,7 @@
       </c>
       <c r="H100" s="33"/>
     </row>
-    <row r="101" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="52.9" customHeight="1">
       <c r="A101" s="26" t="s">
         <v>296</v>
       </c>
@@ -5008,14 +5044,14 @@
         <v>298</v>
       </c>
       <c r="D101" s="29">
-        <v>20782.68</v>
+        <v>35982.57</v>
       </c>
       <c r="E101" s="30">
         <v>0</v>
       </c>
       <c r="F101" s="31">
         <f t="shared" si="4"/>
-        <v>-20782.68</v>
+        <v>-35982.57</v>
       </c>
       <c r="G101" s="32" t="str">
         <f t="shared" si="5"/>
@@ -5023,7 +5059,7 @@
       </c>
       <c r="H101" s="33"/>
     </row>
-    <row r="102" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="52.9" customHeight="1">
       <c r="A102" s="26" t="s">
         <v>299</v>
       </c>
@@ -5034,14 +5070,14 @@
         <v>301</v>
       </c>
       <c r="D102" s="29">
-        <v>7304.32</v>
+        <v>20782.68</v>
       </c>
       <c r="E102" s="30">
         <v>0</v>
       </c>
       <c r="F102" s="31">
         <f t="shared" si="4"/>
-        <v>-7304.32</v>
+        <v>-20782.68</v>
       </c>
       <c r="G102" s="32" t="str">
         <f t="shared" si="5"/>
@@ -5049,7 +5085,7 @@
       </c>
       <c r="H102" s="33"/>
     </row>
-    <row r="103" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="52.9" customHeight="1">
       <c r="A103" s="26" t="s">
         <v>302</v>
       </c>
@@ -5060,14 +5096,14 @@
         <v>304</v>
       </c>
       <c r="D103" s="29">
-        <v>2299</v>
+        <v>7304.32</v>
       </c>
       <c r="E103" s="30">
         <v>0</v>
       </c>
       <c r="F103" s="31">
         <f t="shared" si="4"/>
-        <v>-2299</v>
+        <v>-7304.32</v>
       </c>
       <c r="G103" s="32" t="str">
         <f t="shared" si="5"/>
@@ -5075,7 +5111,7 @@
       </c>
       <c r="H103" s="33"/>
     </row>
-    <row r="104" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="52.9" customHeight="1">
       <c r="A104" s="26" t="s">
         <v>305</v>
       </c>
@@ -5086,22 +5122,22 @@
         <v>307</v>
       </c>
       <c r="D104" s="29">
-        <v>886.16</v>
+        <v>2299</v>
       </c>
       <c r="E104" s="30">
         <v>0</v>
       </c>
       <c r="F104" s="31">
-        <f t="shared" ref="F104:F135" si="6">E104-D104</f>
-        <v>-886.16</v>
+        <f t="shared" si="4"/>
+        <v>-2299</v>
       </c>
       <c r="G104" s="32" t="str">
-        <f t="shared" ref="G104:G135" si="7">IF(E104=0,"-",IF(D104=0,"*",F104/D104))</f>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="H104" s="33"/>
     </row>
-    <row r="105" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="52.9" customHeight="1">
       <c r="A105" s="26" t="s">
         <v>308</v>
       </c>
@@ -5112,126 +5148,126 @@
         <v>310</v>
       </c>
       <c r="D105" s="29">
+        <v>886.16</v>
+      </c>
+      <c r="E105" s="30">
+        <v>0</v>
+      </c>
+      <c r="F105" s="31">
+        <f t="shared" ref="F105:F136" si="6">E105-D105</f>
+        <v>-886.16</v>
+      </c>
+      <c r="G105" s="32" t="str">
+        <f t="shared" ref="G105:G136" si="7">IF(E105=0,"-",IF(D105=0,"*",F105/D105))</f>
+        <v>-</v>
+      </c>
+      <c r="H105" s="33"/>
+    </row>
+    <row r="106" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A106" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" s="29">
         <v>2677.96</v>
       </c>
-      <c r="E105" s="30">
-        <v>0</v>
-      </c>
-      <c r="F105" s="31">
+      <c r="E106" s="30">
+        <v>0</v>
+      </c>
+      <c r="F106" s="31">
         <f t="shared" si="6"/>
         <v>-2677.96</v>
       </c>
-      <c r="G105" s="32" t="str">
+      <c r="G106" s="32" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="H105" s="33"/>
-    </row>
-    <row r="106" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="D106" s="29">
+      <c r="H106" s="33"/>
+    </row>
+    <row r="107" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A107" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D107" s="29">
         <v>2828.75</v>
       </c>
-      <c r="E106" s="30">
-        <v>0</v>
-      </c>
-      <c r="F106" s="31">
+      <c r="E107" s="30">
+        <v>0</v>
+      </c>
+      <c r="F107" s="31">
         <f t="shared" si="6"/>
         <v>-2828.75</v>
       </c>
-      <c r="G106" s="32" t="str">
+      <c r="G107" s="32" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="H106" s="33"/>
-    </row>
-    <row r="107" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D107" s="29">
+      <c r="H107" s="33"/>
+    </row>
+    <row r="108" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A108" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D108" s="29">
         <v>840</v>
       </c>
-      <c r="E107" s="30">
-        <v>0</v>
-      </c>
-      <c r="F107" s="31">
+      <c r="E108" s="30">
+        <v>0</v>
+      </c>
+      <c r="F108" s="31">
         <f t="shared" si="6"/>
         <v>-840</v>
       </c>
-      <c r="G107" s="32" t="str">
+      <c r="G108" s="32" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="H107" s="33"/>
-    </row>
-    <row r="108" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="D108" s="29">
+      <c r="H108" s="33"/>
+    </row>
+    <row r="109" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A109" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" s="29">
         <v>150</v>
       </c>
-      <c r="E108" s="30">
-        <v>0</v>
-      </c>
-      <c r="F108" s="31">
+      <c r="E109" s="30">
+        <v>0</v>
+      </c>
+      <c r="F109" s="31">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
-      <c r="G108" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="H108" s="33"/>
-    </row>
-    <row r="109" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="D109" s="29">
-        <v>7267.610000000001</v>
-      </c>
-      <c r="E109" s="30">
-        <v>0</v>
-      </c>
-      <c r="F109" s="31">
-        <f t="shared" si="6"/>
-        <v>-7267.610000000001</v>
-      </c>
       <c r="G109" s="32" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="H109" s="33"/>
     </row>
-    <row r="110" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="52.9" customHeight="1">
       <c r="A110" s="26" t="s">
         <v>323</v>
       </c>
@@ -5242,14 +5278,14 @@
         <v>325</v>
       </c>
       <c r="D110" s="29">
-        <v>4145.83</v>
+        <v>7267.6100000000006</v>
       </c>
       <c r="E110" s="30">
         <v>0</v>
       </c>
       <c r="F110" s="31">
         <f t="shared" si="6"/>
-        <v>-4145.83</v>
+        <v>-7267.6100000000006</v>
       </c>
       <c r="G110" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5257,7 +5293,7 @@
       </c>
       <c r="H110" s="33"/>
     </row>
-    <row r="111" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="52.9" customHeight="1">
       <c r="A111" s="26" t="s">
         <v>326</v>
       </c>
@@ -5268,14 +5304,14 @@
         <v>328</v>
       </c>
       <c r="D111" s="29">
-        <v>1496</v>
+        <v>4145.83</v>
       </c>
       <c r="E111" s="30">
         <v>0</v>
       </c>
       <c r="F111" s="31">
         <f t="shared" si="6"/>
-        <v>-1496</v>
+        <v>-4145.83</v>
       </c>
       <c r="G111" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5283,7 +5319,7 @@
       </c>
       <c r="H111" s="33"/>
     </row>
-    <row r="112" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="52.9" customHeight="1">
       <c r="A112" s="26" t="s">
         <v>329</v>
       </c>
@@ -5294,14 +5330,14 @@
         <v>331</v>
       </c>
       <c r="D112" s="29">
-        <v>4700.3</v>
+        <v>1496</v>
       </c>
       <c r="E112" s="30">
         <v>0</v>
       </c>
       <c r="F112" s="31">
         <f t="shared" si="6"/>
-        <v>-4700.3</v>
+        <v>-1496</v>
       </c>
       <c r="G112" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5309,7 +5345,7 @@
       </c>
       <c r="H112" s="33"/>
     </row>
-    <row r="113" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="52.9" customHeight="1">
       <c r="A113" s="26" t="s">
         <v>332</v>
       </c>
@@ -5320,14 +5356,14 @@
         <v>334</v>
       </c>
       <c r="D113" s="29">
-        <v>832.5</v>
+        <v>4700.3</v>
       </c>
       <c r="E113" s="30">
         <v>0</v>
       </c>
       <c r="F113" s="31">
         <f t="shared" si="6"/>
-        <v>-832.5</v>
+        <v>-4700.3</v>
       </c>
       <c r="G113" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5335,7 +5371,7 @@
       </c>
       <c r="H113" s="33"/>
     </row>
-    <row r="114" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="52.9" customHeight="1">
       <c r="A114" s="26" t="s">
         <v>335</v>
       </c>
@@ -5346,14 +5382,14 @@
         <v>337</v>
       </c>
       <c r="D114" s="29">
-        <v>15734.25</v>
+        <v>832.5</v>
       </c>
       <c r="E114" s="30">
         <v>0</v>
       </c>
       <c r="F114" s="31">
         <f t="shared" si="6"/>
-        <v>-15734.25</v>
+        <v>-832.5</v>
       </c>
       <c r="G114" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5361,7 +5397,7 @@
       </c>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="52.9" customHeight="1">
       <c r="A115" s="26" t="s">
         <v>338</v>
       </c>
@@ -5372,14 +5408,14 @@
         <v>340</v>
       </c>
       <c r="D115" s="29">
-        <v>5955</v>
+        <v>15734.25</v>
       </c>
       <c r="E115" s="30">
         <v>0</v>
       </c>
       <c r="F115" s="31">
         <f t="shared" si="6"/>
-        <v>-5955</v>
+        <v>-15734.25</v>
       </c>
       <c r="G115" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5387,7 +5423,7 @@
       </c>
       <c r="H115" s="33"/>
     </row>
-    <row r="116" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="52.9" customHeight="1">
       <c r="A116" s="26" t="s">
         <v>341</v>
       </c>
@@ -5398,14 +5434,14 @@
         <v>343</v>
       </c>
       <c r="D116" s="29">
-        <v>300</v>
+        <v>5955</v>
       </c>
       <c r="E116" s="30">
         <v>0</v>
       </c>
       <c r="F116" s="31">
         <f t="shared" si="6"/>
-        <v>-300</v>
+        <v>-5955</v>
       </c>
       <c r="G116" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5413,7 +5449,7 @@
       </c>
       <c r="H116" s="33"/>
     </row>
-    <row r="117" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="52.9" customHeight="1">
       <c r="A117" s="26" t="s">
         <v>344</v>
       </c>
@@ -5424,14 +5460,14 @@
         <v>346</v>
       </c>
       <c r="D117" s="29">
-        <v>9143.87</v>
+        <v>300</v>
       </c>
       <c r="E117" s="30">
         <v>0</v>
       </c>
       <c r="F117" s="31">
         <f t="shared" si="6"/>
-        <v>-9143.87</v>
+        <v>-300</v>
       </c>
       <c r="G117" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5439,7 +5475,7 @@
       </c>
       <c r="H117" s="33"/>
     </row>
-    <row r="118" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="52.9" customHeight="1">
       <c r="A118" s="26" t="s">
         <v>347</v>
       </c>
@@ -5450,14 +5486,14 @@
         <v>349</v>
       </c>
       <c r="D118" s="29">
-        <v>2498</v>
+        <v>9143.8700000000008</v>
       </c>
       <c r="E118" s="30">
         <v>0</v>
       </c>
       <c r="F118" s="31">
         <f t="shared" si="6"/>
-        <v>-2498</v>
+        <v>-9143.8700000000008</v>
       </c>
       <c r="G118" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5465,7 +5501,7 @@
       </c>
       <c r="H118" s="33"/>
     </row>
-    <row r="119" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="52.9" customHeight="1">
       <c r="A119" s="26" t="s">
         <v>350</v>
       </c>
@@ -5476,14 +5512,14 @@
         <v>352</v>
       </c>
       <c r="D119" s="29">
-        <v>1500</v>
+        <v>2498</v>
       </c>
       <c r="E119" s="30">
         <v>0</v>
       </c>
       <c r="F119" s="31">
         <f t="shared" si="6"/>
-        <v>-1500</v>
+        <v>-2498</v>
       </c>
       <c r="G119" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5491,7 +5527,7 @@
       </c>
       <c r="H119" s="33"/>
     </row>
-    <row r="120" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="52.9" customHeight="1">
       <c r="A120" s="26" t="s">
         <v>353</v>
       </c>
@@ -5502,14 +5538,14 @@
         <v>355</v>
       </c>
       <c r="D120" s="29">
-        <v>37440.58</v>
+        <v>1500</v>
       </c>
       <c r="E120" s="30">
         <v>0</v>
       </c>
       <c r="F120" s="31">
         <f t="shared" si="6"/>
-        <v>-37440.58</v>
+        <v>-1500</v>
       </c>
       <c r="G120" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5517,7 +5553,7 @@
       </c>
       <c r="H120" s="33"/>
     </row>
-    <row r="121" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="52.9" customHeight="1">
       <c r="A121" s="26" t="s">
         <v>356</v>
       </c>
@@ -5528,14 +5564,14 @@
         <v>358</v>
       </c>
       <c r="D121" s="29">
-        <v>274.35</v>
+        <v>37440.58</v>
       </c>
       <c r="E121" s="30">
         <v>0</v>
       </c>
       <c r="F121" s="31">
         <f t="shared" si="6"/>
-        <v>-274.35</v>
+        <v>-37440.58</v>
       </c>
       <c r="G121" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5543,7 +5579,7 @@
       </c>
       <c r="H121" s="33"/>
     </row>
-    <row r="122" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="52.9" customHeight="1">
       <c r="A122" s="26" t="s">
         <v>359</v>
       </c>
@@ -5554,14 +5590,14 @@
         <v>361</v>
       </c>
       <c r="D122" s="29">
-        <v>10011.9</v>
+        <v>274.35000000000002</v>
       </c>
       <c r="E122" s="30">
         <v>0</v>
       </c>
       <c r="F122" s="31">
         <f t="shared" si="6"/>
-        <v>-10011.9</v>
+        <v>-274.35000000000002</v>
       </c>
       <c r="G122" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5569,7 +5605,7 @@
       </c>
       <c r="H122" s="33"/>
     </row>
-    <row r="123" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="52.9" customHeight="1">
       <c r="A123" s="26" t="s">
         <v>362</v>
       </c>
@@ -5580,14 +5616,14 @@
         <v>364</v>
       </c>
       <c r="D123" s="29">
-        <v>36777.38</v>
+        <v>10011.9</v>
       </c>
       <c r="E123" s="30">
         <v>0</v>
       </c>
       <c r="F123" s="31">
         <f t="shared" si="6"/>
-        <v>-36777.38</v>
+        <v>-10011.9</v>
       </c>
       <c r="G123" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5595,7 +5631,7 @@
       </c>
       <c r="H123" s="33"/>
     </row>
-    <row r="124" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="52.9" customHeight="1">
       <c r="A124" s="26" t="s">
         <v>365</v>
       </c>
@@ -5606,14 +5642,14 @@
         <v>367</v>
       </c>
       <c r="D124" s="29">
-        <v>1834.41</v>
+        <v>36777.379999999997</v>
       </c>
       <c r="E124" s="30">
         <v>0</v>
       </c>
       <c r="F124" s="31">
         <f t="shared" si="6"/>
-        <v>-1834.41</v>
+        <v>-36777.379999999997</v>
       </c>
       <c r="G124" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5621,7 +5657,7 @@
       </c>
       <c r="H124" s="33"/>
     </row>
-    <row r="125" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="52.9" customHeight="1">
       <c r="A125" s="26" t="s">
         <v>368</v>
       </c>
@@ -5632,14 +5668,14 @@
         <v>370</v>
       </c>
       <c r="D125" s="29">
-        <v>35700.43</v>
+        <v>1834.41</v>
       </c>
       <c r="E125" s="30">
         <v>0</v>
       </c>
       <c r="F125" s="31">
         <f t="shared" si="6"/>
-        <v>-35700.43</v>
+        <v>-1834.41</v>
       </c>
       <c r="G125" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5647,7 +5683,7 @@
       </c>
       <c r="H125" s="33"/>
     </row>
-    <row r="126" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="52.9" customHeight="1">
       <c r="A126" s="26" t="s">
         <v>371</v>
       </c>
@@ -5658,14 +5694,14 @@
         <v>373</v>
       </c>
       <c r="D126" s="29">
-        <v>59332.19</v>
+        <v>35700.43</v>
       </c>
       <c r="E126" s="30">
         <v>0</v>
       </c>
       <c r="F126" s="31">
         <f t="shared" si="6"/>
-        <v>-59332.19</v>
+        <v>-35700.43</v>
       </c>
       <c r="G126" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5673,7 +5709,7 @@
       </c>
       <c r="H126" s="33"/>
     </row>
-    <row r="127" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="52.9" customHeight="1">
       <c r="A127" s="26" t="s">
         <v>374</v>
       </c>
@@ -5684,14 +5720,14 @@
         <v>376</v>
       </c>
       <c r="D127" s="29">
-        <v>26804.25</v>
+        <v>59332.19</v>
       </c>
       <c r="E127" s="30">
         <v>0</v>
       </c>
       <c r="F127" s="31">
         <f t="shared" si="6"/>
-        <v>-26804.25</v>
+        <v>-59332.19</v>
       </c>
       <c r="G127" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5699,7 +5735,7 @@
       </c>
       <c r="H127" s="33"/>
     </row>
-    <row r="128" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="52.9" customHeight="1">
       <c r="A128" s="26" t="s">
         <v>377</v>
       </c>
@@ -5710,14 +5746,14 @@
         <v>379</v>
       </c>
       <c r="D128" s="29">
-        <v>-140.48</v>
+        <v>26804.25</v>
       </c>
       <c r="E128" s="30">
         <v>0</v>
       </c>
       <c r="F128" s="31">
         <f t="shared" si="6"/>
-        <v>140.48</v>
+        <v>-26804.25</v>
       </c>
       <c r="G128" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5725,7 +5761,7 @@
       </c>
       <c r="H128" s="33"/>
     </row>
-    <row r="129" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="52.9" customHeight="1">
       <c r="A129" s="26" t="s">
         <v>380</v>
       </c>
@@ -5736,14 +5772,14 @@
         <v>382</v>
       </c>
       <c r="D129" s="29">
-        <v>2008.3400000000001</v>
+        <v>-140.47999999999999</v>
       </c>
       <c r="E129" s="30">
         <v>0</v>
       </c>
       <c r="F129" s="31">
         <f t="shared" si="6"/>
-        <v>-2008.3400000000001</v>
+        <v>140.47999999999999</v>
       </c>
       <c r="G129" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5751,7 +5787,7 @@
       </c>
       <c r="H129" s="33"/>
     </row>
-    <row r="130" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="52.9" customHeight="1">
       <c r="A130" s="26" t="s">
         <v>383</v>
       </c>
@@ -5762,14 +5798,14 @@
         <v>385</v>
       </c>
       <c r="D130" s="29">
-        <v>1444.88</v>
+        <v>2008.3400000000001</v>
       </c>
       <c r="E130" s="30">
         <v>0</v>
       </c>
       <c r="F130" s="31">
         <f t="shared" si="6"/>
-        <v>-1444.88</v>
+        <v>-2008.3400000000001</v>
       </c>
       <c r="G130" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5777,7 +5813,7 @@
       </c>
       <c r="H130" s="33"/>
     </row>
-    <row r="131" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="52.9" customHeight="1">
       <c r="A131" s="26" t="s">
         <v>386</v>
       </c>
@@ -5788,14 +5824,14 @@
         <v>388</v>
       </c>
       <c r="D131" s="29">
-        <v>-500</v>
+        <v>1444.88</v>
       </c>
       <c r="E131" s="30">
         <v>0</v>
       </c>
       <c r="F131" s="31">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>-1444.88</v>
       </c>
       <c r="G131" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5803,7 +5839,7 @@
       </c>
       <c r="H131" s="33"/>
     </row>
-    <row r="132" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="52.9" customHeight="1">
       <c r="A132" s="26" t="s">
         <v>389</v>
       </c>
@@ -5814,14 +5850,14 @@
         <v>391</v>
       </c>
       <c r="D132" s="29">
-        <v>2405</v>
+        <v>-500</v>
       </c>
       <c r="E132" s="30">
         <v>0</v>
       </c>
       <c r="F132" s="31">
         <f t="shared" si="6"/>
-        <v>-2405</v>
+        <v>500</v>
       </c>
       <c r="G132" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5829,7 +5865,7 @@
       </c>
       <c r="H132" s="33"/>
     </row>
-    <row r="133" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="52.9" customHeight="1">
       <c r="A133" s="26" t="s">
         <v>392</v>
       </c>
@@ -5840,14 +5876,14 @@
         <v>394</v>
       </c>
       <c r="D133" s="29">
-        <v>186611.26</v>
+        <v>2405</v>
       </c>
       <c r="E133" s="30">
         <v>0</v>
       </c>
       <c r="F133" s="31">
         <f t="shared" si="6"/>
-        <v>-186611.26</v>
+        <v>-2405</v>
       </c>
       <c r="G133" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5855,7 +5891,7 @@
       </c>
       <c r="H133" s="33"/>
     </row>
-    <row r="134" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="52.9" customHeight="1">
       <c r="A134" s="26" t="s">
         <v>395</v>
       </c>
@@ -5866,14 +5902,14 @@
         <v>397</v>
       </c>
       <c r="D134" s="29">
-        <v>800</v>
+        <v>186611.26</v>
       </c>
       <c r="E134" s="30">
         <v>0</v>
       </c>
       <c r="F134" s="31">
         <f t="shared" si="6"/>
-        <v>-800</v>
+        <v>-186611.26</v>
       </c>
       <c r="G134" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5881,7 +5917,7 @@
       </c>
       <c r="H134" s="33"/>
     </row>
-    <row r="135" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="52.9" customHeight="1">
       <c r="A135" s="26" t="s">
         <v>398</v>
       </c>
@@ -5892,14 +5928,14 @@
         <v>400</v>
       </c>
       <c r="D135" s="29">
-        <v>3435.34</v>
+        <v>800</v>
       </c>
       <c r="E135" s="30">
         <v>0</v>
       </c>
       <c r="F135" s="31">
         <f t="shared" si="6"/>
-        <v>-3435.34</v>
+        <v>-800</v>
       </c>
       <c r="G135" s="32" t="str">
         <f t="shared" si="7"/>
@@ -5907,7 +5943,7 @@
       </c>
       <c r="H135" s="33"/>
     </row>
-    <row r="136" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="52.9" customHeight="1">
       <c r="A136" s="26" t="s">
         <v>401</v>
       </c>
@@ -5918,22 +5954,22 @@
         <v>403</v>
       </c>
       <c r="D136" s="29">
-        <v>100</v>
+        <v>302372.40000000002</v>
       </c>
       <c r="E136" s="30">
         <v>0</v>
       </c>
       <c r="F136" s="31">
-        <f t="shared" ref="F136:F167" si="8">E136-D136</f>
-        <v>-100</v>
+        <f t="shared" si="6"/>
+        <v>-302372.40000000002</v>
       </c>
       <c r="G136" s="32" t="str">
-        <f t="shared" ref="G136:G167" si="9">IF(E136=0,"-",IF(D136=0,"*",F136/D136))</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="H136" s="33"/>
     </row>
-    <row r="137" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="52.9" customHeight="1">
       <c r="A137" s="26" t="s">
         <v>404</v>
       </c>
@@ -5944,787 +5980,943 @@
         <v>406</v>
       </c>
       <c r="D137" s="29">
+        <v>39418.83</v>
+      </c>
+      <c r="E137" s="30">
+        <v>0</v>
+      </c>
+      <c r="F137" s="31">
+        <f t="shared" ref="F137:F168" si="8">E137-D137</f>
+        <v>-39418.83</v>
+      </c>
+      <c r="G137" s="32" t="str">
+        <f t="shared" ref="G137:G168" si="9">IF(E137=0,"-",IF(D137=0,"*",F137/D137))</f>
+        <v>-</v>
+      </c>
+      <c r="H137" s="33"/>
+    </row>
+    <row r="138" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A138" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D138" s="29">
+        <v>0</v>
+      </c>
+      <c r="E138" s="30">
+        <v>0</v>
+      </c>
+      <c r="F138" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H138" s="33"/>
+    </row>
+    <row r="139" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A139" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D139" s="29">
+        <v>40378.29</v>
+      </c>
+      <c r="E139" s="30">
+        <v>0</v>
+      </c>
+      <c r="F139" s="31">
+        <f t="shared" si="8"/>
+        <v>-40378.29</v>
+      </c>
+      <c r="G139" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H139" s="33"/>
+    </row>
+    <row r="140" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A140" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D140" s="29">
+        <v>11121.48</v>
+      </c>
+      <c r="E140" s="30">
+        <v>0</v>
+      </c>
+      <c r="F140" s="31">
+        <f t="shared" si="8"/>
+        <v>-11121.48</v>
+      </c>
+      <c r="G140" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H140" s="33"/>
+    </row>
+    <row r="141" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A141" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D141" s="29">
+        <v>3435.34</v>
+      </c>
+      <c r="E141" s="30">
+        <v>0</v>
+      </c>
+      <c r="F141" s="31">
+        <f t="shared" si="8"/>
+        <v>-3435.34</v>
+      </c>
+      <c r="G141" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H141" s="33"/>
+    </row>
+    <row r="142" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A142" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D142" s="29">
+        <v>100</v>
+      </c>
+      <c r="E142" s="30">
+        <v>0</v>
+      </c>
+      <c r="F142" s="31">
+        <f t="shared" si="8"/>
+        <v>-100</v>
+      </c>
+      <c r="G142" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="H142" s="33"/>
+    </row>
+    <row r="143" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A143" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D143" s="29">
         <v>630</v>
       </c>
-      <c r="E137" s="30">
-        <v>0</v>
-      </c>
-      <c r="F137" s="31">
+      <c r="E143" s="30">
+        <v>0</v>
+      </c>
+      <c r="F143" s="31">
         <f t="shared" si="8"/>
         <v>-630</v>
       </c>
-      <c r="G137" s="32" t="str">
+      <c r="G143" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H137" s="33"/>
-    </row>
-    <row r="138" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="D138" s="29">
+      <c r="H143" s="33"/>
+    </row>
+    <row r="144" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A144" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D144" s="29">
         <v>12352.300000000001</v>
       </c>
-      <c r="E138" s="30">
-        <v>0</v>
-      </c>
-      <c r="F138" s="31">
+      <c r="E144" s="30">
+        <v>0</v>
+      </c>
+      <c r="F144" s="31">
         <f t="shared" si="8"/>
         <v>-12352.300000000001</v>
       </c>
-      <c r="G138" s="32" t="str">
+      <c r="G144" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H138" s="33"/>
-    </row>
-    <row r="139" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="D139" s="29">
+      <c r="H144" s="33"/>
+    </row>
+    <row r="145" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A145" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="D145" s="29">
         <v>4475</v>
       </c>
-      <c r="E139" s="30">
-        <v>0</v>
-      </c>
-      <c r="F139" s="31">
+      <c r="E145" s="30">
+        <v>0</v>
+      </c>
+      <c r="F145" s="31">
         <f t="shared" si="8"/>
         <v>-4475</v>
       </c>
-      <c r="G139" s="32" t="str">
+      <c r="G145" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H139" s="33"/>
-    </row>
-    <row r="140" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D140" s="29">
-        <v>623.3000000000001</v>
-      </c>
-      <c r="E140" s="30">
-        <v>0</v>
-      </c>
-      <c r="F140" s="31">
+      <c r="H145" s="33"/>
+    </row>
+    <row r="146" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A146" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B146" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D146" s="29">
+        <v>623.30000000000007</v>
+      </c>
+      <c r="E146" s="30">
+        <v>0</v>
+      </c>
+      <c r="F146" s="31">
         <f t="shared" si="8"/>
-        <v>-623.3000000000001</v>
-      </c>
-      <c r="G140" s="32" t="str">
+        <v>-623.30000000000007</v>
+      </c>
+      <c r="G146" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H140" s="33"/>
-    </row>
-    <row r="141" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="D141" s="29">
+      <c r="H146" s="33"/>
+    </row>
+    <row r="147" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A147" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="D147" s="29">
         <v>1200</v>
       </c>
-      <c r="E141" s="30">
-        <v>0</v>
-      </c>
-      <c r="F141" s="31">
+      <c r="E147" s="30">
+        <v>0</v>
+      </c>
+      <c r="F147" s="31">
         <f t="shared" si="8"/>
         <v>-1200</v>
       </c>
-      <c r="G141" s="32" t="str">
+      <c r="G147" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H141" s="33"/>
-    </row>
-    <row r="142" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="D142" s="29">
+      <c r="H147" s="33"/>
+    </row>
+    <row r="148" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A148" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="D148" s="29">
         <v>1626.66</v>
       </c>
-      <c r="E142" s="30">
-        <v>0</v>
-      </c>
-      <c r="F142" s="31">
+      <c r="E148" s="30">
+        <v>0</v>
+      </c>
+      <c r="F148" s="31">
         <f t="shared" si="8"/>
         <v>-1626.66</v>
       </c>
-      <c r="G142" s="32" t="str">
+      <c r="G148" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H142" s="33"/>
-    </row>
-    <row r="143" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="C143" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="D143" s="29">
+      <c r="H148" s="33"/>
+    </row>
+    <row r="149" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A149" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="D149" s="29">
         <v>709.08</v>
       </c>
-      <c r="E143" s="30">
-        <v>0</v>
-      </c>
-      <c r="F143" s="31">
+      <c r="E149" s="30">
+        <v>0</v>
+      </c>
+      <c r="F149" s="31">
         <f t="shared" si="8"/>
         <v>-709.08</v>
       </c>
-      <c r="G143" s="32" t="str">
+      <c r="G149" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H143" s="33"/>
-    </row>
-    <row r="144" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C144" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="D144" s="29">
+      <c r="H149" s="33"/>
+    </row>
+    <row r="150" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A150" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="D150" s="29">
         <v>21778.66</v>
       </c>
-      <c r="E144" s="30">
-        <v>0</v>
-      </c>
-      <c r="F144" s="31">
+      <c r="E150" s="30">
+        <v>0</v>
+      </c>
+      <c r="F150" s="31">
         <f t="shared" si="8"/>
         <v>-21778.66</v>
       </c>
-      <c r="G144" s="32" t="str">
+      <c r="G150" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H144" s="33"/>
-    </row>
-    <row r="145" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="B145" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="D145" s="29">
+      <c r="H150" s="33"/>
+    </row>
+    <row r="151" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A151" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D151" s="29">
         <v>22558.5</v>
       </c>
-      <c r="E145" s="30">
-        <v>0</v>
-      </c>
-      <c r="F145" s="31">
+      <c r="E151" s="30">
+        <v>0</v>
+      </c>
+      <c r="F151" s="31">
         <f t="shared" si="8"/>
         <v>-22558.5</v>
       </c>
-      <c r="G145" s="32" t="str">
+      <c r="G151" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H145" s="33"/>
-    </row>
-    <row r="146" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="C146" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="D146" s="29">
+      <c r="H151" s="33"/>
+    </row>
+    <row r="152" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A152" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="D152" s="29">
         <v>4883.24</v>
       </c>
-      <c r="E146" s="30">
-        <v>0</v>
-      </c>
-      <c r="F146" s="31">
+      <c r="E152" s="30">
+        <v>0</v>
+      </c>
+      <c r="F152" s="31">
         <f t="shared" si="8"/>
         <v>-4883.24</v>
       </c>
-      <c r="G146" s="32" t="str">
+      <c r="G152" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H146" s="33"/>
-    </row>
-    <row r="147" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="C147" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="D147" s="29">
+      <c r="H152" s="33"/>
+    </row>
+    <row r="153" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A153" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="D153" s="29">
         <v>8390.630000000001</v>
       </c>
-      <c r="E147" s="30">
-        <v>0</v>
-      </c>
-      <c r="F147" s="31">
+      <c r="E153" s="30">
+        <v>0</v>
+      </c>
+      <c r="F153" s="31">
         <f t="shared" si="8"/>
         <v>-8390.630000000001</v>
       </c>
-      <c r="G147" s="32" t="str">
+      <c r="G153" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H147" s="33"/>
-    </row>
-    <row r="148" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="C148" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="D148" s="29">
+      <c r="H153" s="33"/>
+    </row>
+    <row r="154" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A154" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="D154" s="29">
         <v>396.67</v>
       </c>
-      <c r="E148" s="30">
-        <v>0</v>
-      </c>
-      <c r="F148" s="31">
+      <c r="E154" s="30">
+        <v>0</v>
+      </c>
+      <c r="F154" s="31">
         <f t="shared" si="8"/>
         <v>-396.67</v>
       </c>
-      <c r="G148" s="32" t="str">
+      <c r="G154" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H148" s="33"/>
-    </row>
-    <row r="149" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="C149" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="D149" s="29">
+      <c r="H154" s="33"/>
+    </row>
+    <row r="155" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A155" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D155" s="29">
         <v>524.34</v>
       </c>
-      <c r="E149" s="30">
-        <v>0</v>
-      </c>
-      <c r="F149" s="31">
+      <c r="E155" s="30">
+        <v>0</v>
+      </c>
+      <c r="F155" s="31">
         <f t="shared" si="8"/>
         <v>-524.34</v>
       </c>
-      <c r="G149" s="32" t="str">
+      <c r="G155" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H149" s="33"/>
-    </row>
-    <row r="150" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="C150" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="D150" s="29">
+      <c r="H155" s="33"/>
+    </row>
+    <row r="156" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A156" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D156" s="29">
         <v>485.05</v>
       </c>
-      <c r="E150" s="30">
-        <v>0</v>
-      </c>
-      <c r="F150" s="31">
+      <c r="E156" s="30">
+        <v>0</v>
+      </c>
+      <c r="F156" s="31">
         <f t="shared" si="8"/>
         <v>-485.05</v>
       </c>
-      <c r="G150" s="32" t="str">
+      <c r="G156" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H150" s="33"/>
-    </row>
-    <row r="151" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="C151" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="D151" s="29">
+      <c r="H156" s="33"/>
+    </row>
+    <row r="157" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A157" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="D157" s="29">
         <v>1159</v>
       </c>
-      <c r="E151" s="30">
-        <v>0</v>
-      </c>
-      <c r="F151" s="31">
+      <c r="E157" s="30">
+        <v>0</v>
+      </c>
+      <c r="F157" s="31">
         <f t="shared" si="8"/>
         <v>-1159</v>
       </c>
-      <c r="G151" s="32" t="str">
+      <c r="G157" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H151" s="33"/>
-    </row>
-    <row r="152" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="D152" s="29">
-        <v>614.17</v>
-      </c>
-      <c r="E152" s="30">
-        <v>0</v>
-      </c>
-      <c r="F152" s="31">
+      <c r="H157" s="33"/>
+    </row>
+    <row r="158" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A158" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="D158" s="29">
+        <v>614.16999999999996</v>
+      </c>
+      <c r="E158" s="30">
+        <v>0</v>
+      </c>
+      <c r="F158" s="31">
         <f t="shared" si="8"/>
-        <v>-614.17</v>
-      </c>
-      <c r="G152" s="32" t="str">
+        <v>-614.16999999999996</v>
+      </c>
+      <c r="G158" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H152" s="33"/>
-    </row>
-    <row r="153" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="D153" s="29">
+      <c r="H158" s="33"/>
+    </row>
+    <row r="159" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A159" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D159" s="29">
         <v>49.26</v>
       </c>
-      <c r="E153" s="30">
-        <v>0</v>
-      </c>
-      <c r="F153" s="31">
+      <c r="E159" s="30">
+        <v>0</v>
+      </c>
+      <c r="F159" s="31">
         <f t="shared" si="8"/>
         <v>-49.26</v>
       </c>
-      <c r="G153" s="32" t="str">
+      <c r="G159" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H153" s="33"/>
-    </row>
-    <row r="154" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="C154" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="D154" s="29">
+      <c r="H159" s="33"/>
+    </row>
+    <row r="160" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A160" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="D160" s="29">
         <v>14322.49</v>
       </c>
-      <c r="E154" s="30">
-        <v>0</v>
-      </c>
-      <c r="F154" s="31">
+      <c r="E160" s="30">
+        <v>0</v>
+      </c>
+      <c r="F160" s="31">
         <f t="shared" si="8"/>
         <v>-14322.49</v>
       </c>
-      <c r="G154" s="32" t="str">
+      <c r="G160" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H154" s="33"/>
-    </row>
-    <row r="155" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="C155" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="D155" s="29">
-        <v>41431.12</v>
-      </c>
-      <c r="E155" s="30">
-        <v>0</v>
-      </c>
-      <c r="F155" s="31">
+      <c r="H160" s="33"/>
+    </row>
+    <row r="161" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A161" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="D161" s="29">
+        <v>41431.120000000003</v>
+      </c>
+      <c r="E161" s="30">
+        <v>0</v>
+      </c>
+      <c r="F161" s="31">
         <f t="shared" si="8"/>
-        <v>-41431.12</v>
-      </c>
-      <c r="G155" s="32" t="str">
+        <v>-41431.120000000003</v>
+      </c>
+      <c r="G161" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H155" s="33"/>
-    </row>
-    <row r="156" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="C156" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="D156" s="29">
+      <c r="H161" s="33"/>
+    </row>
+    <row r="162" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A162" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="D162" s="29">
         <v>11004.68</v>
       </c>
-      <c r="E156" s="30">
-        <v>0</v>
-      </c>
-      <c r="F156" s="31">
+      <c r="E162" s="30">
+        <v>0</v>
+      </c>
+      <c r="F162" s="31">
         <f t="shared" si="8"/>
         <v>-11004.68</v>
       </c>
-      <c r="G156" s="32" t="str">
+      <c r="G162" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H156" s="33"/>
-    </row>
-    <row r="157" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="C157" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="D157" s="29">
+      <c r="H162" s="33"/>
+    </row>
+    <row r="163" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A163" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D163" s="29">
         <v>352.78000000000003</v>
       </c>
-      <c r="E157" s="30">
-        <v>0</v>
-      </c>
-      <c r="F157" s="31">
+      <c r="E163" s="30">
+        <v>0</v>
+      </c>
+      <c r="F163" s="31">
         <f t="shared" si="8"/>
         <v>-352.78000000000003</v>
       </c>
-      <c r="G157" s="32" t="str">
+      <c r="G163" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H157" s="33"/>
-    </row>
-    <row r="158" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="D158" s="29">
+      <c r="H163" s="33"/>
+    </row>
+    <row r="164" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A164" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D164" s="29">
         <v>710.91</v>
       </c>
-      <c r="E158" s="30">
-        <v>0</v>
-      </c>
-      <c r="F158" s="31">
+      <c r="E164" s="30">
+        <v>0</v>
+      </c>
+      <c r="F164" s="31">
         <f t="shared" si="8"/>
         <v>-710.91</v>
       </c>
-      <c r="G158" s="32" t="str">
+      <c r="G164" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H158" s="33"/>
-    </row>
-    <row r="159" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="D159" s="29">
+      <c r="H164" s="33"/>
+    </row>
+    <row r="165" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A165" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D165" s="29">
         <v>1257</v>
       </c>
-      <c r="E159" s="30">
-        <v>0</v>
-      </c>
-      <c r="F159" s="31">
+      <c r="E165" s="30">
+        <v>0</v>
+      </c>
+      <c r="F165" s="31">
         <f t="shared" si="8"/>
         <v>-1257</v>
       </c>
-      <c r="G159" s="32" t="str">
+      <c r="G165" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H159" s="33"/>
-    </row>
-    <row r="160" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="C160" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="D160" s="29">
+      <c r="H165" s="33"/>
+    </row>
+    <row r="166" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A166" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="D166" s="29">
         <v>564.64</v>
       </c>
-      <c r="E160" s="30">
-        <v>0</v>
-      </c>
-      <c r="F160" s="31">
+      <c r="E166" s="30">
+        <v>0</v>
+      </c>
+      <c r="F166" s="31">
         <f t="shared" si="8"/>
         <v>-564.64</v>
       </c>
-      <c r="G160" s="32" t="str">
+      <c r="G166" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H160" s="33"/>
-    </row>
-    <row r="161" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="B161" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D161" s="29">
+      <c r="H166" s="33"/>
+    </row>
+    <row r="167" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A167" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D167" s="29">
         <v>6169.85</v>
       </c>
-      <c r="E161" s="30">
-        <v>0</v>
-      </c>
-      <c r="F161" s="31">
+      <c r="E167" s="30">
+        <v>0</v>
+      </c>
+      <c r="F167" s="31">
         <f t="shared" si="8"/>
         <v>-6169.85</v>
       </c>
-      <c r="G161" s="32" t="str">
+      <c r="G167" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H161" s="33"/>
-    </row>
-    <row r="162" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="D162" s="29">
+      <c r="H167" s="33"/>
+    </row>
+    <row r="168" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A168" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" s="29">
         <v>151146.44</v>
       </c>
-      <c r="E162" s="30">
-        <v>0</v>
-      </c>
-      <c r="F162" s="31">
+      <c r="E168" s="30">
+        <v>0</v>
+      </c>
+      <c r="F168" s="31">
         <f t="shared" si="8"/>
         <v>-151146.44</v>
       </c>
-      <c r="G162" s="32" t="str">
+      <c r="G168" s="32" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="H162" s="33"/>
-    </row>
-    <row r="163" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="C163" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="D163" s="29">
+      <c r="H168" s="33"/>
+    </row>
+    <row r="169" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A169" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D169" s="29">
         <v>0.19</v>
       </c>
-      <c r="E163" s="30">
-        <v>0</v>
-      </c>
-      <c r="F163" s="31">
-        <f t="shared" si="8"/>
+      <c r="E169" s="30">
+        <v>0</v>
+      </c>
+      <c r="F169" s="31">
+        <f>E169-D169</f>
         <v>-0.19</v>
       </c>
-      <c r="G163" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="H163" s="33"/>
-    </row>
-    <row r="164" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>486</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="D164" s="29">
-        <v>4692.150000000001</v>
-      </c>
-      <c r="E164" s="30">
-        <v>0</v>
-      </c>
-      <c r="F164" s="31">
-        <f t="shared" si="8"/>
-        <v>-4692.150000000001</v>
-      </c>
-      <c r="G164" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="H164" s="33"/>
-    </row>
-    <row r="165" ht="52.9" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D165" s="29">
+      <c r="G169" s="32" t="str">
+        <f>IF(E169=0,"-",IF(D169=0,"*",F169/D169))</f>
+        <v>-</v>
+      </c>
+      <c r="H169" s="33"/>
+    </row>
+    <row r="170" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A170" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D170" s="29">
+        <v>4692.1500000000005</v>
+      </c>
+      <c r="E170" s="30">
+        <v>0</v>
+      </c>
+      <c r="F170" s="31">
+        <f>E170-D170</f>
+        <v>-4692.1500000000005</v>
+      </c>
+      <c r="G170" s="32" t="str">
+        <f>IF(E170=0,"-",IF(D170=0,"*",F170/D170))</f>
+        <v>-</v>
+      </c>
+      <c r="H170" s="33"/>
+    </row>
+    <row r="171" spans="1:8" ht="52.9" customHeight="1">
+      <c r="A171" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="D171" s="29">
         <v>0.86</v>
       </c>
-      <c r="E165" s="30">
-        <v>0</v>
-      </c>
-      <c r="F165" s="31">
-        <f t="shared" si="8"/>
+      <c r="E171" s="30">
+        <v>0</v>
+      </c>
+      <c r="F171" s="31">
+        <f>E171-D171</f>
         <v>-0.86</v>
       </c>
-      <c r="G165" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="H165" s="33"/>
-    </row>
-    <row r="166" ht="31.9" customHeight="1" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="B166" s="36"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="38">
-        <f>SUM(D8:D165)</f>
-        <v>12775218.178860003</v>
-      </c>
-      <c r="E166" s="39">
-        <f>SUM(E8:E165)</f>
-        <v>0</v>
-      </c>
-      <c r="F166" s="40">
-        <f>SUM(F8:F165)</f>
-        <v>-12775218.178860003</v>
-      </c>
-      <c r="G166" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="H166" s="42"/>
-    </row>
-    <row r="167" ht="27.6" customHeight="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="B167" s="43"/>
-      <c r="F167" s="43" t="s">
-        <v>493</v>
-      </c>
-      <c r="G167" s="44"/>
-      <c r="H167" s="45"/>
+      <c r="G171" s="32" t="str">
+        <f>IF(E171=0,"-",IF(D171=0,"*",F171/D171))</f>
+        <v>-</v>
+      </c>
+      <c r="H171" s="33"/>
+    </row>
+    <row r="172" spans="1:8" s="34" customFormat="1" ht="31.9" customHeight="1">
+      <c r="A172" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="B172" s="36"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="38">
+        <f>SUM(D8:D171)</f>
+        <v>8023639.5359900016</v>
+      </c>
+      <c r="E172" s="39">
+        <f>SUM(E8:E171)</f>
+        <v>0</v>
+      </c>
+      <c r="F172" s="40">
+        <f>SUM(F8:F171)</f>
+        <v>-8023639.5359900016</v>
+      </c>
+      <c r="G172" s="41" t="str">
+        <f>IF(E172=0,"-",IF(D172=0,"*",F172/D172))</f>
+        <v>-</v>
+      </c>
+      <c r="H172" s="42"/>
+    </row>
+    <row r="173" spans="1:8" s="5" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A173" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="B173" s="43"/>
+      <c r="F173" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="G173" s="44"/>
+      <c r="H173" s="45"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.3937007874015748" bottom="0.3937007874015748" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="60" fitToWidth="1" fitToHeight="4" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="4" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>